--- a/etf_dfs/EWN.xlsx
+++ b/etf_dfs/EWN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWN</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>16.5625</v>
       </c>
       <c r="F2">
-        <v>8.056026458740234</v>
+        <v>8.056025505065918</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>16.625</v>
       </c>
       <c r="F3">
-        <v>8.086423873901367</v>
+        <v>8.086429595947266</v>
       </c>
       <c r="G3">
         <v>300</v>
@@ -488,7 +494,7 @@
         <v>0.003773584905660377</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>17.75</v>
       </c>
       <c r="F4">
-        <v>8.633628845214844</v>
+        <v>8.63362979888916</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.06766917293233088</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.04518100358156069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>17.75</v>
       </c>
       <c r="F5">
-        <v>8.633628845214844</v>
+        <v>8.63362979888916</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.03802631342824757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>17.375</v>
       </c>
       <c r="F6">
-        <v>8.451228141784668</v>
+        <v>8.451226234436035</v>
       </c>
       <c r="G6">
         <v>7800</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.02112676056338025</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.03832654443443283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.007194244604316502</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.0343495158810261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>17.75</v>
       </c>
       <c r="F8">
-        <v>8.796440124511719</v>
+        <v>8.796439170837402</v>
       </c>
       <c r="G8">
         <v>7700</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.02898550724637672</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.03182777890647234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>18.125</v>
       </c>
       <c r="F9">
-        <v>8.982276916503906</v>
+        <v>8.982278823852539</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.02112676056338025</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.02925792259443256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.06206896551724128</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.0321061476442225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.01623376623376616</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.0300512411728707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>19.5</v>
       </c>
       <c r="F12">
-        <v>9.670769691467285</v>
+        <v>9.670772552490234</v>
       </c>
       <c r="G12">
         <v>10000</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.00319488817891378</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.02919351974455394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.04487179487179493</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.02895686020111219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>20.25</v>
       </c>
       <c r="F14">
-        <v>10.042724609375</v>
+        <v>10.04272651672363</v>
       </c>
       <c r="G14">
         <v>19600</v>
@@ -774,13 +810,16 @@
         <v>-0.006134969325153339</v>
       </c>
       <c r="I14">
-        <v>0.2226415094339622</v>
+        <v>0.02857510548999935</v>
       </c>
       <c r="J14">
         <v>0.2226415094339622</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.2226415094339622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>20.25</v>
       </c>
       <c r="F15">
-        <v>10.042724609375</v>
+        <v>10.04272651672363</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -806,13 +845,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2180451127819549</v>
+        <v>0.02777406634811707</v>
       </c>
       <c r="J15">
         <v>0.2180451127819549</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.2180451127819549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>21.8125</v>
       </c>
       <c r="F16">
-        <v>10.81762886047363</v>
+        <v>10.81762790679932</v>
       </c>
       <c r="G16">
         <v>2900</v>
@@ -838,13 +880,16 @@
         <v>0.07716049382716039</v>
       </c>
       <c r="I16">
-        <v>0.2288732394366197</v>
+        <v>0.03130281303341437</v>
       </c>
       <c r="J16">
         <v>0.2288732394366197</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.2288732394366197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>23.3125</v>
       </c>
       <c r="F17">
-        <v>11.56153297424316</v>
+        <v>11.56153011322021</v>
       </c>
       <c r="G17">
         <v>5500</v>
@@ -870,13 +915,16 @@
         <v>0.06876790830945567</v>
       </c>
       <c r="I17">
-        <v>0.3133802816901408</v>
+        <v>0.03265680312531286</v>
       </c>
       <c r="J17">
         <v>0.3133802816901408</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.3133802816901408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>24.5</v>
       </c>
       <c r="F18">
-        <v>12.15046310424805</v>
+        <v>12.15046215057373</v>
       </c>
       <c r="G18">
         <v>15400</v>
@@ -902,13 +950,16 @@
         <v>0.05093833780160861</v>
       </c>
       <c r="I18">
-        <v>0.4100719424460431</v>
+        <v>0.0322847801084172</v>
       </c>
       <c r="J18">
         <v>0.4100719424460431</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.4100719424460431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>21.5625</v>
       </c>
       <c r="F19">
-        <v>11.10939693450928</v>
+        <v>11.10939884185791</v>
       </c>
       <c r="G19">
         <v>4900</v>
@@ -934,13 +985,16 @@
         <v>-0.1198979591836735</v>
       </c>
       <c r="I19">
-        <v>0.25</v>
+        <v>0.04707860023727351</v>
       </c>
       <c r="J19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>23.4375</v>
       </c>
       <c r="F20">
-        <v>12.07543468475342</v>
+        <v>12.07543563842773</v>
       </c>
       <c r="G20">
         <v>200</v>
@@ -966,13 +1020,16 @@
         <v>0.08695652173913038</v>
       </c>
       <c r="I20">
-        <v>0.3204225352112675</v>
+        <v>0.04858159920406808</v>
       </c>
       <c r="J20">
         <v>0.3204225352112675</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.3204225352112675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>22.4375</v>
       </c>
       <c r="F21">
-        <v>11.56021595001221</v>
+        <v>11.56021213531494</v>
       </c>
       <c r="G21">
         <v>19200</v>
@@ -998,13 +1055,16 @@
         <v>-0.04266666666666663</v>
       </c>
       <c r="I21">
-        <v>0.2379310344827585</v>
+        <v>0.04939426593395724</v>
       </c>
       <c r="J21">
         <v>0.2379310344827585</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.2379310344827585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1030,13 +1090,16 @@
         <v>-0.0111420612813371</v>
       </c>
       <c r="I22">
-        <v>0.1525974025974026</v>
+        <v>0.04849511926668398</v>
       </c>
       <c r="J22">
         <v>0.1525974025974026</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.1525974025974026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>22.5</v>
       </c>
       <c r="F23">
-        <v>11.66245555877686</v>
+        <v>11.66245269775391</v>
       </c>
       <c r="G23">
         <v>2200</v>
@@ -1062,13 +1125,16 @@
         <v>0.0140845070422535</v>
       </c>
       <c r="I23">
-        <v>0.1501597444089458</v>
+        <v>0.04726878289235419</v>
       </c>
       <c r="J23">
         <v>0.1501597444089458</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.1501597444089458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>22.875</v>
       </c>
       <c r="F24">
-        <v>11.85683059692383</v>
+        <v>11.85682964324951</v>
       </c>
       <c r="G24">
         <v>9000</v>
@@ -1094,13 +1160,16 @@
         <v>0.01666666666666661</v>
       </c>
       <c r="I24">
-        <v>0.1730769230769231</v>
+        <v>0.0461300001887567</v>
       </c>
       <c r="J24">
         <v>0.1730769230769231</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.1730769230769231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>25.125</v>
       </c>
       <c r="F25">
-        <v>13.02307319641113</v>
+        <v>13.0230770111084</v>
       </c>
       <c r="G25">
         <v>5500</v>
@@ -1126,13 +1195,16 @@
         <v>0.09836065573770503</v>
       </c>
       <c r="I25">
-        <v>0.2331288343558282</v>
+        <v>0.04824413813872121</v>
       </c>
       <c r="J25">
         <v>0.2331288343558282</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.2331288343558282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>26.3125</v>
       </c>
       <c r="F26">
-        <v>13.638596534729</v>
+        <v>13.63859462738037</v>
       </c>
       <c r="G26">
         <v>5000</v>
@@ -1158,13 +1230,16 @@
         <v>0.04726368159203975</v>
       </c>
       <c r="I26">
-        <v>0.2993827160493827</v>
+        <v>0.04752515021313237</v>
       </c>
       <c r="J26">
         <v>0.2993827160493827</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.2993827160493827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>27.1875</v>
       </c>
       <c r="F27">
-        <v>14.09213256835938</v>
+        <v>14.09213161468506</v>
       </c>
       <c r="G27">
         <v>3100</v>
@@ -1190,13 +1265,16 @@
         <v>0.03325415676959631</v>
       </c>
       <c r="I27">
-        <v>0.3425925925925926</v>
+        <v>0.04659366951701309</v>
       </c>
       <c r="J27">
         <v>0.3425925925925926</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.3425925925925926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>28.5</v>
       </c>
       <c r="F28">
-        <v>14.77244281768799</v>
+        <v>14.77244186401367</v>
       </c>
       <c r="G28">
         <v>10900</v>
@@ -1222,13 +1300,16 @@
         <v>0.04827586206896561</v>
       </c>
       <c r="I28">
-        <v>0.3065902578796562</v>
+        <v>0.04596294830026894</v>
       </c>
       <c r="J28">
         <v>0.3065902578796562</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.3065902578796562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>28.0625</v>
       </c>
       <c r="F29">
-        <v>14.54567241668701</v>
+        <v>14.54567718505859</v>
       </c>
       <c r="G29">
         <v>71000</v>
@@ -1254,13 +1335,16 @@
         <v>-0.01535087719298245</v>
       </c>
       <c r="I29">
-        <v>0.2037533512064342</v>
+        <v>0.04564361370481741</v>
       </c>
       <c r="J29">
         <v>0.2037533512064342</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.2037533512064342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>28.125</v>
       </c>
       <c r="F30">
-        <v>14.57806491851807</v>
+        <v>14.57806968688965</v>
       </c>
       <c r="G30">
         <v>1700</v>
@@ -1286,13 +1370,16 @@
         <v>0.00222717149220486</v>
       </c>
       <c r="I30">
-        <v>0.1479591836734695</v>
+        <v>0.04492669203345316</v>
       </c>
       <c r="J30">
         <v>0.1479591836734695</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.1479591836734695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>22.9375</v>
       </c>
       <c r="F31">
-        <v>12.66458034515381</v>
+        <v>12.66458415985107</v>
       </c>
       <c r="G31">
         <v>18500</v>
@@ -1318,13 +1405,16 @@
         <v>-0.1844444444444444</v>
       </c>
       <c r="I31">
-        <v>0.06376811594202891</v>
+        <v>0.05821178220178697</v>
       </c>
       <c r="J31">
         <v>0.06376811594202891</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.06376811594202891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>22.3125</v>
       </c>
       <c r="F32">
-        <v>12.31949901580811</v>
+        <v>12.31949424743652</v>
       </c>
       <c r="G32">
         <v>1900</v>
@@ -1350,13 +1440,16 @@
         <v>-0.02724795640326971</v>
       </c>
       <c r="I32">
-        <v>-0.04800000000000004</v>
+        <v>0.05766982577673622</v>
       </c>
       <c r="J32">
         <v>-0.04800000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.04800000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>23.75</v>
       </c>
       <c r="F33">
-        <v>13.11318874359131</v>
+        <v>13.11319541931152</v>
       </c>
       <c r="G33">
         <v>4500</v>
@@ -1382,13 +1475,16 @@
         <v>0.06442577030812324</v>
       </c>
       <c r="I33">
-        <v>0.0584958217270195</v>
+        <v>0.05748658346797791</v>
       </c>
       <c r="J33">
         <v>0.0584958217270195</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.0584958217270195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1414,13 +1510,16 @@
         <v>0.03157894736842115</v>
       </c>
       <c r="I34">
-        <v>0.1042253521126761</v>
+        <v>0.0566432381016509</v>
       </c>
       <c r="J34">
         <v>0.1042253521126761</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.1042253521126761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>25.75</v>
       </c>
       <c r="F35">
-        <v>14.44634628295898</v>
+        <v>14.44634437561035</v>
       </c>
       <c r="G35">
         <v>6000</v>
@@ -1446,13 +1545,16 @@
         <v>0.05102040816326525</v>
       </c>
       <c r="I35">
-        <v>0.1444444444444444</v>
+        <v>0.05612346040862846</v>
       </c>
       <c r="J35">
         <v>0.1444444444444444</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.1444444444444444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>24.1875</v>
       </c>
       <c r="F36">
-        <v>13.56975078582764</v>
+        <v>13.569748878479</v>
       </c>
       <c r="G36">
         <v>1100</v>
@@ -1478,13 +1580,16 @@
         <v>-0.06067961165048541</v>
       </c>
       <c r="I36">
-        <v>0.05737704918032782</v>
+        <v>0.0567728616034613</v>
       </c>
       <c r="J36">
         <v>0.05737704918032782</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.05737704918032782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>23.9375</v>
       </c>
       <c r="F37">
-        <v>13.42949104309082</v>
+        <v>13.42949295043945</v>
       </c>
       <c r="G37">
         <v>1100</v>
@@ -1510,13 +1615,16 @@
         <v>-0.01033591731266148</v>
       </c>
       <c r="I37">
-        <v>-0.04726368159203975</v>
+        <v>0.05606878066686628</v>
       </c>
       <c r="J37">
         <v>-0.04726368159203975</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.04726368159203975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>23.75</v>
       </c>
       <c r="F38">
-        <v>13.32429790496826</v>
+        <v>13.32430267333984</v>
       </c>
       <c r="G38">
         <v>1400</v>
@@ -1542,13 +1650,16 @@
         <v>-0.007832898172323799</v>
       </c>
       <c r="I38">
-        <v>-0.09738717339667458</v>
+        <v>0.05536256133561231</v>
       </c>
       <c r="J38">
         <v>-0.09738717339667458</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.09738717339667458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>25.75</v>
       </c>
       <c r="F39">
-        <v>14.44634628295898</v>
+        <v>14.44634437561035</v>
       </c>
       <c r="G39">
         <v>1500</v>
@@ -1574,13 +1685,16 @@
         <v>0.08421052631578951</v>
       </c>
       <c r="I39">
-        <v>-0.05287356321839076</v>
+        <v>0.05587731498380794</v>
       </c>
       <c r="J39">
         <v>-0.05287356321839076</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.05287356321839076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>24.25</v>
       </c>
       <c r="F40">
-        <v>13.60481071472168</v>
+        <v>13.60480880737305</v>
       </c>
       <c r="G40">
         <v>1800</v>
@@ -1606,13 +1720,16 @@
         <v>-0.05825242718446599</v>
       </c>
       <c r="I40">
-        <v>-0.1491228070175439</v>
+        <v>0.05633557463957874</v>
       </c>
       <c r="J40">
         <v>-0.1491228070175439</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.1491228070175439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>24.8125</v>
       </c>
       <c r="F41">
-        <v>13.92038822174072</v>
+        <v>13.92038726806641</v>
       </c>
       <c r="G41">
         <v>33100</v>
@@ -1638,13 +1755,16 @@
         <v>0.02319587628865971</v>
       </c>
       <c r="I41">
-        <v>-0.1158129175946548</v>
+        <v>0.05561987076473052</v>
       </c>
       <c r="J41">
         <v>-0.1158129175946548</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.1158129175946548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>24.5625</v>
       </c>
       <c r="F42">
-        <v>13.78013134002686</v>
+        <v>13.7801342010498</v>
       </c>
       <c r="G42">
         <v>700</v>
@@ -1670,13 +1790,16 @@
         <v>-0.01007556675062971</v>
       </c>
       <c r="I42">
-        <v>-0.1266666666666667</v>
+        <v>0.05501290846843991</v>
       </c>
       <c r="J42">
         <v>-0.1266666666666667</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.1266666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>23.375</v>
       </c>
       <c r="F43">
-        <v>14.09444999694824</v>
+        <v>14.09444618225098</v>
       </c>
       <c r="G43">
         <v>7900</v>
@@ -1702,13 +1825,16 @@
         <v>-0.04834605597964381</v>
       </c>
       <c r="I43">
-        <v>0.01907356948228878</v>
+        <v>0.05511746568040551</v>
       </c>
       <c r="J43">
         <v>0.01907356948228878</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.01907356948228878</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>22.75</v>
       </c>
       <c r="F44">
-        <v>13.71759128570557</v>
+        <v>13.71759223937988</v>
       </c>
       <c r="G44">
         <v>3600</v>
@@ -1734,13 +1860,16 @@
         <v>-0.0267379679144385</v>
       </c>
       <c r="I44">
-        <v>0.01960784313725483</v>
+        <v>0.05473517928212113</v>
       </c>
       <c r="J44">
         <v>0.01960784313725483</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.01960784313725483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>23.4375</v>
       </c>
       <c r="F45">
-        <v>14.13213729858398</v>
+        <v>14.13213634490967</v>
       </c>
       <c r="G45">
         <v>10700</v>
@@ -1766,13 +1895,16 @@
         <v>0.03021978021978011</v>
       </c>
       <c r="I45">
-        <v>-0.01315789473684215</v>
+        <v>0.05417541057388495</v>
       </c>
       <c r="J45">
         <v>-0.01315789473684215</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.01315789473684215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>22.875</v>
       </c>
       <c r="F46">
-        <v>13.79296112060547</v>
+        <v>13.79296207427979</v>
       </c>
       <c r="G46">
         <v>5800</v>
@@ -1798,13 +1930,16 @@
         <v>-0.02400000000000002</v>
       </c>
       <c r="I46">
-        <v>-0.06632653061224492</v>
+        <v>0.05378079245931359</v>
       </c>
       <c r="J46">
         <v>-0.06632653061224492</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.06632653061224492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1830,13 +1965,16 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="I47">
-        <v>-0.01699029126213591</v>
+        <v>0.05512584663860044</v>
       </c>
       <c r="J47">
         <v>-0.01699029126213591</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.01699029126213591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1862,13 +2000,16 @@
         <v>-0.1333333333333333</v>
       </c>
       <c r="I48">
-        <v>-0.09302325581395354</v>
+        <v>0.05851694824597987</v>
       </c>
       <c r="J48">
         <v>-0.09302325581395354</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.09302325581395354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>23.6875</v>
       </c>
       <c r="F49">
-        <v>14.28287696838379</v>
+        <v>14.28287792205811</v>
       </c>
       <c r="G49">
         <v>10200</v>
@@ -1894,13 +2035,16 @@
         <v>0.07977207977207978</v>
       </c>
       <c r="I49">
-        <v>-0.01044386422976507</v>
+        <v>0.05882005995755945</v>
       </c>
       <c r="J49">
         <v>-0.01044386422976507</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.01044386422976507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>24.125</v>
       </c>
       <c r="F50">
-        <v>14.54667472839355</v>
+        <v>14.5466775894165</v>
       </c>
       <c r="G50">
         <v>1600</v>
@@ -1926,13 +2070,16 @@
         <v>0.01846965699208436</v>
       </c>
       <c r="I50">
-        <v>0.01578947368421058</v>
+        <v>0.0582056823127476</v>
       </c>
       <c r="J50">
         <v>0.01578947368421058</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.01578947368421058</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>23.0625</v>
       </c>
       <c r="F51">
-        <v>13.90601634979248</v>
+        <v>13.90601444244385</v>
       </c>
       <c r="G51">
         <v>4500</v>
@@ -1958,13 +2105,16 @@
         <v>-0.04404145077720212</v>
       </c>
       <c r="I51">
-        <v>-0.1043689320388349</v>
+        <v>0.05810346537727647</v>
       </c>
       <c r="J51">
         <v>-0.1043689320388349</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.1043689320388349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>23.875</v>
       </c>
       <c r="F52">
-        <v>14.39593410491943</v>
+        <v>14.39593124389648</v>
       </c>
       <c r="G52">
         <v>20400</v>
@@ -1990,13 +2140,16 @@
         <v>0.03523035230352312</v>
       </c>
       <c r="I52">
-        <v>-0.01546391752577314</v>
+        <v>0.05763170514226756</v>
       </c>
       <c r="J52">
         <v>-0.01546391752577314</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.01546391752577314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>24.9375</v>
       </c>
       <c r="F53">
-        <v>15.03658771514893</v>
+        <v>15.03659343719482</v>
       </c>
       <c r="G53">
         <v>3000</v>
@@ -2022,13 +2175,16 @@
         <v>0.04450261780104703</v>
       </c>
       <c r="I53">
-        <v>0.005037783375314797</v>
+        <v>0.0572683382941513</v>
       </c>
       <c r="J53">
         <v>0.005037783375314797</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.005037783375314797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>24.0625</v>
       </c>
       <c r="F54">
-        <v>14.50898838043213</v>
+        <v>14.50899410247803</v>
       </c>
       <c r="G54">
         <v>800</v>
@@ -2054,13 +2210,16 @@
         <v>-0.03508771929824561</v>
       </c>
       <c r="I54">
-        <v>-0.02035623409669207</v>
+        <v>0.0570435754526339</v>
       </c>
       <c r="J54">
         <v>-0.02035623409669207</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.02035623409669207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>23.625</v>
       </c>
       <c r="F55">
-        <v>14.37816524505615</v>
+        <v>14.37816143035889</v>
       </c>
       <c r="G55">
         <v>7500</v>
@@ -2086,13 +2245,16 @@
         <v>-0.01818181818181819</v>
       </c>
       <c r="I55">
-        <v>0.01069518716577544</v>
+        <v>0.05661440641958605</v>
       </c>
       <c r="J55">
         <v>0.01069518716577544</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.01069518716577544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>22.6875</v>
       </c>
       <c r="F56">
-        <v>13.8076000213623</v>
+        <v>13.80759811401367</v>
       </c>
       <c r="G56">
         <v>1800</v>
@@ -2118,13 +2280,16 @@
         <v>-0.03968253968253965</v>
       </c>
       <c r="I56">
-        <v>-0.002747252747252737</v>
+        <v>0.05645742372411305</v>
       </c>
       <c r="J56">
         <v>-0.002747252747252737</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.002747252747252737</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>22.75</v>
       </c>
       <c r="F57">
-        <v>13.84563255310059</v>
+        <v>13.84563827514648</v>
       </c>
       <c r="G57">
         <v>26800</v>
@@ -2150,13 +2315,16 @@
         <v>0.002754820936639035</v>
       </c>
       <c r="I57">
-        <v>-0.02933333333333332</v>
+        <v>0.05593582631243543</v>
       </c>
       <c r="J57">
         <v>-0.02933333333333332</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.02933333333333332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>21.875</v>
       </c>
       <c r="F58">
-        <v>13.31311225891113</v>
+        <v>13.31311321258545</v>
       </c>
       <c r="G58">
         <v>5600</v>
@@ -2182,13 +2350,16 @@
         <v>-0.03846153846153844</v>
       </c>
       <c r="I58">
-        <v>-0.04371584699453557</v>
+        <v>0.05576241612710595</v>
       </c>
       <c r="J58">
         <v>-0.04371584699453557</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.04371584699453557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>22.6875</v>
       </c>
       <c r="F59">
-        <v>13.95603370666504</v>
+        <v>13.95603275299072</v>
       </c>
       <c r="G59">
         <v>18800</v>
@@ -2214,13 +2385,16 @@
         <v>0.03714285714285714</v>
       </c>
       <c r="I59">
-        <v>-0.1037037037037037</v>
+        <v>0.05541059233536817</v>
       </c>
       <c r="J59">
         <v>-0.1037037037037037</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1037037037037037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>22.81999969482422</v>
       </c>
       <c r="F60">
-        <v>14.03753852844238</v>
+        <v>14.03754234313965</v>
       </c>
       <c r="G60">
         <v>17700</v>
@@ -2246,13 +2420,16 @@
         <v>0.005840206934400793</v>
       </c>
       <c r="I60">
-        <v>0.04022790631677342</v>
+        <v>0.05492263022594959</v>
       </c>
       <c r="J60">
         <v>0.04022790631677342</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>0.04022790631677342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>21.64999961853027</v>
       </c>
       <c r="F61">
-        <v>13.31782341003418</v>
+        <v>13.31782150268555</v>
       </c>
       <c r="G61">
         <v>34200</v>
@@ -2278,13 +2455,16 @@
         <v>-0.05127081910344244</v>
       </c>
       <c r="I61">
-        <v>-0.08601584723882749</v>
+        <v>0.05497434934262704</v>
       </c>
       <c r="J61">
         <v>-0.08601584723882749</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.08601584723882749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>19.35000038146973</v>
       </c>
       <c r="F62">
-        <v>11.90299701690674</v>
+        <v>11.90299606323242</v>
       </c>
       <c r="G62">
         <v>1300</v>
@@ -2310,13 +2490,16 @@
         <v>-0.1062355324520179</v>
       </c>
       <c r="I62">
-        <v>-0.1979274453276797</v>
+        <v>0.05640223912170192</v>
       </c>
       <c r="J62">
         <v>-0.1979274453276797</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.1979274453276797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2342,13 +2525,16 @@
         <v>0.07028416931222981</v>
       </c>
       <c r="I63">
-        <v>-0.1020054597518631</v>
+        <v>0.05656642961185007</v>
       </c>
       <c r="J63">
         <v>-0.1020054597518631</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.1020054597518631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>19.89999961853027</v>
       </c>
       <c r="F64">
-        <v>12.24132537841797</v>
+        <v>12.24132633209229</v>
       </c>
       <c r="G64">
         <v>3400</v>
@@ -2374,13 +2560,16 @@
         <v>-0.03911151626026299</v>
       </c>
       <c r="I64">
-        <v>-0.1664921625746483</v>
+        <v>0.05638359613934042</v>
       </c>
       <c r="J64">
         <v>-0.1664921625746483</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.1664921625746483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>19.25</v>
       </c>
       <c r="F65">
-        <v>11.84148216247559</v>
+        <v>11.84148502349854</v>
       </c>
       <c r="G65">
         <v>61000</v>
@@ -2406,13 +2595,16 @@
         <v>-0.03266329803971524</v>
       </c>
       <c r="I65">
-        <v>-0.2280701754385965</v>
+        <v>0.05612350861967633</v>
       </c>
       <c r="J65">
         <v>-0.2280701754385965</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.2280701754385965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>19.35000038146973</v>
       </c>
       <c r="F66">
-        <v>11.90299701690674</v>
+        <v>11.90299606323242</v>
       </c>
       <c r="G66">
         <v>20800</v>
@@ -2438,13 +2630,16 @@
         <v>0.005194825011414439</v>
       </c>
       <c r="I66">
-        <v>-0.1958441399908685</v>
+        <v>0.05567650703749633</v>
       </c>
       <c r="J66">
         <v>-0.1958441399908685</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.1958441399908685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>18.51000022888184</v>
       </c>
       <c r="F67">
-        <v>11.5566873550415</v>
+        <v>11.55668544769287</v>
       </c>
       <c r="G67">
         <v>2500</v>
@@ -2470,13 +2665,16 @@
         <v>-0.04341085974304715</v>
       </c>
       <c r="I67">
-        <v>-0.2165079268198165</v>
+        <v>0.05555202411540295</v>
       </c>
       <c r="J67">
         <v>-0.2165079268198165</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.2165079268198165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="F68">
-        <v>9.989575386047363</v>
+        <v>9.989574432373047</v>
       </c>
       <c r="G68">
         <v>6100</v>
@@ -2502,13 +2700,16 @@
         <v>-0.135602387782005</v>
       </c>
       <c r="I68">
-        <v>-0.2947658402203857</v>
+        <v>0.05771291628944021</v>
       </c>
       <c r="J68">
         <v>-0.2947658402203857</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.2947658402203857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>16.05999946594238</v>
       </c>
       <c r="F69">
-        <v>10.0270357131958</v>
+        <v>10.02703380584717</v>
       </c>
       <c r="G69">
         <v>1200</v>
@@ -2534,13 +2735,16 @@
         <v>0.003749966621398926</v>
       </c>
       <c r="I69">
-        <v>-0.2940659575409942</v>
+        <v>0.05727489447403916</v>
       </c>
       <c r="J69">
         <v>-0.2940659575409942</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.2940659575409942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>16.6299991607666</v>
       </c>
       <c r="F70">
-        <v>10.38291168212891</v>
+        <v>10.38291263580322</v>
       </c>
       <c r="G70">
         <v>1500</v>
@@ -2566,13 +2770,16 @@
         <v>0.03549188753293464</v>
       </c>
       <c r="I70">
-        <v>-0.239771466936384</v>
+        <v>0.05699767425892634</v>
       </c>
       <c r="J70">
         <v>-0.239771466936384</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.239771466936384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>16.96999931335449</v>
       </c>
       <c r="F71">
-        <v>10.62100505828857</v>
+        <v>10.62100028991699</v>
       </c>
       <c r="G71">
         <v>2500</v>
@@ -2598,13 +2805,16 @@
         <v>0.02044498916091442</v>
       </c>
       <c r="I71">
-        <v>-0.2520110495491132</v>
+        <v>0.05662193822302341</v>
       </c>
       <c r="J71">
         <v>-0.2520110495491132</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2520110495491132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>16.5</v>
       </c>
       <c r="F72">
-        <v>10.32684326171875</v>
+        <v>10.32684516906738</v>
       </c>
       <c r="G72">
         <v>1600</v>
@@ -2630,13 +2840,16 @@
         <v>-0.02769589465950228</v>
       </c>
       <c r="I72">
-        <v>-0.276950034151738</v>
+        <v>0.05632197922328968</v>
       </c>
       <c r="J72">
         <v>-0.276950034151738</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.276950034151738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>16.60000038146973</v>
       </c>
       <c r="F73">
-        <v>10.38943195343018</v>
+        <v>10.38943099975586</v>
       </c>
       <c r="G73">
         <v>11000</v>
@@ -2662,13 +2875,16 @@
         <v>0.006060629179983401</v>
       </c>
       <c r="I73">
-        <v>-0.2332563199095045</v>
+        <v>0.05592078099147688</v>
       </c>
       <c r="J73">
         <v>-0.2332563199095045</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.2332563199095045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>17.81999969482422</v>
       </c>
       <c r="F74">
-        <v>11.15299320220947</v>
+        <v>11.15299034118652</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -2694,13 +2910,16 @@
         <v>0.07349393285052908</v>
       </c>
       <c r="I74">
-        <v>-0.07906980136861874</v>
+        <v>0.0561678484521585</v>
       </c>
       <c r="J74">
         <v>-0.07906980136861874</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.07906980136861874</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>18.10000038146973</v>
       </c>
       <c r="F75">
-        <v>11.3282356262207</v>
+        <v>11.32823657989502</v>
       </c>
       <c r="G75">
         <v>15900</v>
@@ -2726,13 +2945,16 @@
         <v>0.01571272118073241</v>
       </c>
       <c r="I75">
-        <v>-0.126026017304838</v>
+        <v>0.0557974653017332</v>
       </c>
       <c r="J75">
         <v>-0.126026017304838</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.126026017304838</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>17.86000061035156</v>
       </c>
       <c r="F76">
-        <v>11.17802715301514</v>
+        <v>11.1780252456665</v>
       </c>
       <c r="G76">
         <v>2200</v>
@@ -2758,13 +2980,16 @@
         <v>-0.01325965558342579</v>
       </c>
       <c r="I76">
-        <v>-0.1025125149389011</v>
+        <v>0.05544542271154366</v>
       </c>
       <c r="J76">
         <v>-0.1025125149389011</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1025125149389011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>17.39999961853027</v>
       </c>
       <c r="F77">
-        <v>10.89012718200684</v>
+        <v>10.89012813568115</v>
       </c>
       <c r="G77">
         <v>1500</v>
@@ -2790,13 +3015,16 @@
         <v>-0.02575593371226848</v>
       </c>
       <c r="I77">
-        <v>-0.09610391592050527</v>
+        <v>0.05516667187544612</v>
       </c>
       <c r="J77">
         <v>-0.09610391592050527</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.09610391592050527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>14.47999954223633</v>
       </c>
       <c r="F78">
-        <v>9.062586784362793</v>
+        <v>9.062588691711426</v>
       </c>
       <c r="G78">
         <v>19200</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1678161000178567</v>
       </c>
       <c r="I78">
-        <v>-0.2516796249728807</v>
+        <v>0.05816488268193487</v>
       </c>
       <c r="J78">
         <v>-0.2516796249728807</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.2516796249728807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>14.75</v>
       </c>
       <c r="F79">
-        <v>9.231573104858398</v>
+        <v>9.231574058532715</v>
       </c>
       <c r="G79">
         <v>42300</v>
@@ -2854,13 +3085,16 @@
         <v>0.0186464410427718</v>
       </c>
       <c r="I79">
-        <v>-0.2031334512365358</v>
+        <v>0.05782013562487442</v>
       </c>
       <c r="J79">
         <v>-0.2031334512365358</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.2031334512365358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F80">
-        <v>7.63560676574707</v>
+        <v>7.635604858398438</v>
       </c>
       <c r="G80">
         <v>6100</v>
@@ -2886,13 +3120,16 @@
         <v>-0.1728813688633806</v>
       </c>
       <c r="I80">
-        <v>-0.237500011920929</v>
+        <v>0.06069493354589502</v>
       </c>
       <c r="J80">
         <v>-0.237500011920929</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.237500011920929</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>13.46000003814697</v>
       </c>
       <c r="F81">
-        <v>8.424201011657715</v>
+        <v>8.424198150634766</v>
       </c>
       <c r="G81">
         <v>2100</v>
@@ -2918,13 +3155,16 @@
         <v>0.1032787089000562</v>
       </c>
       <c r="I81">
-        <v>-0.1618928713733208</v>
+        <v>0.0614569813467575</v>
       </c>
       <c r="J81">
         <v>-0.1618928713733208</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1618928713733208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>14.15999984741211</v>
       </c>
       <c r="F82">
-        <v>8.862308502197266</v>
+        <v>8.862310409545898</v>
       </c>
       <c r="G82">
         <v>88500</v>
@@ -2950,13 +3190,16 @@
         <v>0.0520059292185191</v>
       </c>
       <c r="I82">
-        <v>-0.1485267250753506</v>
+        <v>0.06135013975878913</v>
       </c>
       <c r="J82">
         <v>-0.1485267250753506</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.1485267250753506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>13.21000003814697</v>
       </c>
       <c r="F83">
-        <v>8.421357154846191</v>
+        <v>8.421360015869141</v>
       </c>
       <c r="G83">
         <v>800</v>
@@ -2982,13 +3225,16 @@
         <v>-0.06709038273321444</v>
       </c>
       <c r="I83">
-        <v>-0.2215674382643374</v>
+        <v>0.06141935000461585</v>
       </c>
       <c r="J83">
         <v>-0.2215674382643374</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.2215674382643374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>12.10999965667725</v>
       </c>
       <c r="F84">
-        <v>7.720109939575195</v>
+        <v>7.720109462738037</v>
       </c>
       <c r="G84">
         <v>400</v>
@@ -3014,13 +3260,16 @@
         <v>-0.08327027844763191</v>
       </c>
       <c r="I84">
-        <v>-0.2660606268680457</v>
+        <v>0.06171403036959189</v>
       </c>
       <c r="J84">
         <v>-0.2660606268680457</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.2660606268680457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="F85">
-        <v>7.133608818054199</v>
+        <v>7.133610248565674</v>
       </c>
       <c r="G85">
         <v>91900</v>
@@ -3046,13 +3295,16 @@
         <v>-0.07597028095592662</v>
       </c>
       <c r="I85">
-        <v>-0.3259036552267498</v>
+        <v>0.06187381450247505</v>
       </c>
       <c r="J85">
         <v>-0.3259036552267498</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.3259036552267498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>10.81999969482422</v>
       </c>
       <c r="F86">
-        <v>6.897735118865967</v>
+        <v>6.8977370262146</v>
       </c>
       <c r="G86">
         <v>3600</v>
@@ -3078,13 +3330,16 @@
         <v>-0.03306522783143917</v>
       </c>
       <c r="I86">
-        <v>-0.392817066210901</v>
+        <v>0.06158888727634005</v>
       </c>
       <c r="J86">
         <v>-0.392817066210901</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.392817066210901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>12.47999954223633</v>
       </c>
       <c r="F87">
-        <v>7.955985546112061</v>
+        <v>7.95598030090332</v>
       </c>
       <c r="G87">
         <v>2600</v>
@@ -3110,13 +3365,16 @@
         <v>0.1534195835704297</v>
       </c>
       <c r="I87">
-        <v>-0.310497277391607</v>
+        <v>0.06353155160347425</v>
       </c>
       <c r="J87">
         <v>-0.310497277391607</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.310497277391607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>13.19999980926514</v>
       </c>
       <c r="F88">
-        <v>8.414981842041016</v>
+        <v>8.414982795715332</v>
       </c>
       <c r="G88">
         <v>39100</v>
@@ -3142,13 +3400,16 @@
         <v>0.05769233120498884</v>
       </c>
       <c r="I88">
-        <v>-0.2609182890164916</v>
+        <v>0.06347586132237139</v>
       </c>
       <c r="J88">
         <v>-0.2609182890164916</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.2609182890164916</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>13.21000003814697</v>
       </c>
       <c r="F89">
-        <v>8.421357154846191</v>
+        <v>8.421360015869141</v>
       </c>
       <c r="G89">
         <v>2700</v>
@@ -3174,13 +3435,16 @@
         <v>0.0007575931080556764</v>
       </c>
       <c r="I89">
-        <v>-0.2408045788645378</v>
+        <v>0.06310589829753062</v>
       </c>
       <c r="J89">
         <v>-0.2408045788645378</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.2408045788645378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="F90">
-        <v>8.886733055114746</v>
+        <v>8.88673210144043</v>
       </c>
       <c r="G90">
         <v>7600</v>
@@ -3206,13 +3470,16 @@
         <v>0.05526113097110397</v>
       </c>
       <c r="I90">
-        <v>-0.03729281622405556</v>
+        <v>0.06302371872940679</v>
       </c>
       <c r="J90">
         <v>-0.03729281622405556</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>-0.03729281622405556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>14.35000038146973</v>
       </c>
       <c r="F91">
-        <v>9.148107528686523</v>
+        <v>9.14810848236084</v>
       </c>
       <c r="G91">
         <v>19300</v>
@@ -3238,13 +3505,16 @@
         <v>0.02941182305797119</v>
       </c>
       <c r="I91">
-        <v>-0.02711861820544226</v>
+        <v>0.06274172020648038</v>
       </c>
       <c r="J91">
         <v>-0.02711861820544226</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>-0.02711861820544226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3270,13 +3540,16 @@
         <v>-0.02369338979439584</v>
       </c>
       <c r="I92">
-        <v>0.1483606924519882</v>
+        <v>0.06243993073412076</v>
       </c>
       <c r="J92">
         <v>0.1483606924519882</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.1483606924519882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>14.89000034332275</v>
       </c>
       <c r="F93">
-        <v>9.492356300354004</v>
+        <v>9.492355346679688</v>
       </c>
       <c r="G93">
         <v>14200</v>
@@ -3302,13 +3575,16 @@
         <v>0.06281228408738948</v>
       </c>
       <c r="I93">
-        <v>0.1062407355960637</v>
+        <v>0.06243871718427959</v>
       </c>
       <c r="J93">
         <v>0.1062407355960637</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.1062407355960637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>15.53999996185303</v>
       </c>
       <c r="F94">
-        <v>9.906732559204102</v>
+        <v>9.906728744506836</v>
       </c>
       <c r="G94">
         <v>2000</v>
@@ -3334,13 +3610,16 @@
         <v>0.04365343207139394</v>
       </c>
       <c r="I94">
-        <v>0.09745763625083148</v>
+        <v>0.06225503515298943</v>
       </c>
       <c r="J94">
         <v>0.09745763625083148</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.09745763625083148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>16.36000061035156</v>
       </c>
       <c r="F95">
-        <v>10.84842300415039</v>
+        <v>10.84842395782471</v>
       </c>
       <c r="G95">
         <v>34100</v>
@@ -3366,13 +3645,16 @@
         <v>0.05276709462750584</v>
       </c>
       <c r="I95">
-        <v>0.2384557579945665</v>
+        <v>0.06214543520631411</v>
       </c>
       <c r="J95">
         <v>0.2384557579945665</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.2384557579945665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>16.47999954223633</v>
       </c>
       <c r="F96">
-        <v>10.92799377441406</v>
+        <v>10.92799663543701</v>
       </c>
       <c r="G96">
         <v>3600</v>
@@ -3398,13 +3680,16 @@
         <v>0.00733489776331897</v>
       </c>
       <c r="I96">
-        <v>0.3608587951651625</v>
+        <v>0.06181301135025323</v>
       </c>
       <c r="J96">
         <v>0.3608587951651625</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.3608587951651625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3430,13 +3715,16 @@
         <v>0.02305831788049129</v>
       </c>
       <c r="I97">
-        <v>0.5067025239132352</v>
+        <v>0.06152164075287824</v>
       </c>
       <c r="J97">
         <v>0.5067025239132352</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.5067025239132352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3462,13 +3750,16 @@
         <v>-0.05931203543731456</v>
       </c>
       <c r="I98">
-        <v>0.465804076155744</v>
+        <v>0.06151738940576515</v>
       </c>
       <c r="J98">
         <v>0.465804076155744</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.465804076155744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>15.82999992370605</v>
       </c>
       <c r="F99">
-        <v>10.49697589874268</v>
+        <v>10.49697685241699</v>
       </c>
       <c r="G99">
         <v>4000</v>
@@ -3494,13 +3785,16 @@
         <v>-0.001891534276204143</v>
       </c>
       <c r="I99">
-        <v>0.268429527591908</v>
+        <v>0.06119710803958872</v>
       </c>
       <c r="J99">
         <v>0.268429527591908</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.268429527591908</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F100">
-        <v>10.75558948516846</v>
+        <v>10.75558853149414</v>
       </c>
       <c r="G100">
         <v>3000</v>
@@ -3526,13 +3820,16 @@
         <v>0.0246367271969723</v>
       </c>
       <c r="I100">
-        <v>0.228787844524786</v>
+        <v>0.06092587832104331</v>
       </c>
       <c r="J100">
         <v>0.228787844524786</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.228787844524786</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>16.57999992370605</v>
       </c>
       <c r="F101">
-        <v>10.99430751800537</v>
+        <v>10.99430656433105</v>
       </c>
       <c r="G101">
         <v>800</v>
@@ -3558,13 +3855,16 @@
         <v>0.02219485977753166</v>
       </c>
       <c r="I101">
-        <v>0.2551097559294033</v>
+        <v>0.0606492676575649</v>
       </c>
       <c r="J101">
         <v>0.2551097559294033</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2551097559294033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>15.55000019073486</v>
       </c>
       <c r="F102">
-        <v>10.31130599975586</v>
+        <v>10.31130790710449</v>
       </c>
       <c r="G102">
         <v>9800</v>
@@ -3590,13 +3890,16 @@
         <v>-0.06212302398738256</v>
       </c>
       <c r="I102">
-        <v>0.1154950257399716</v>
+        <v>0.06068081096937274</v>
       </c>
       <c r="J102">
         <v>0.1154950257399716</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.1154950257399716</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>15.67000007629395</v>
       </c>
       <c r="F103">
-        <v>10.39087963104248</v>
+        <v>10.3908805847168</v>
       </c>
       <c r="G103">
         <v>12800</v>
@@ -3622,13 +3925,16 @@
         <v>0.007717034346442109</v>
       </c>
       <c r="I103">
-        <v>0.09198603900587665</v>
+        <v>0.06038006940792943</v>
       </c>
       <c r="J103">
         <v>0.09198603900587665</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.09198603900587665</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>16</v>
       </c>
       <c r="F104">
-        <v>10.60970306396484</v>
+        <v>10.60970401763916</v>
       </c>
       <c r="G104">
         <v>900</v>
@@ -3654,13 +3960,16 @@
         <v>0.02105934410334109</v>
       </c>
       <c r="I104">
-        <v>0.1420413803431457</v>
+        <v>0.06011220347712495</v>
       </c>
       <c r="J104">
         <v>0.1420413803431457</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.1420413803431457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>16.85000038146973</v>
       </c>
       <c r="F105">
-        <v>11.17334651947021</v>
+        <v>11.17335033416748</v>
       </c>
       <c r="G105">
         <v>3500</v>
@@ -3686,13 +3995,16 @@
         <v>0.05312502384185791</v>
       </c>
       <c r="I105">
-        <v>0.1316319672904449</v>
+        <v>0.06003261079652214</v>
       </c>
       <c r="J105">
         <v>0.1316319672904449</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.1316319672904449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="F106">
-        <v>11.8497142791748</v>
+        <v>11.84971332550049</v>
       </c>
       <c r="G106">
         <v>4900</v>
@@ -3718,13 +4030,16 @@
         <v>0.06053415042562182</v>
       </c>
       <c r="I106">
-        <v>0.1499357067631895</v>
+        <v>0.06001545915917519</v>
       </c>
       <c r="J106">
         <v>0.1499357067631895</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.1499357067631895</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>18.40999984741211</v>
       </c>
       <c r="F107">
-        <v>12.38373756408691</v>
+        <v>12.38373851776123</v>
       </c>
       <c r="G107">
         <v>13300</v>
@@ -3750,13 +4065,16 @@
         <v>0.03021818594396186</v>
       </c>
       <c r="I107">
-        <v>0.1253055721625975</v>
+        <v>0.05978711819915413</v>
       </c>
       <c r="J107">
         <v>0.1253055721625975</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.1253055721625975</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>18.39999961853027</v>
       </c>
       <c r="F108">
-        <v>12.37701511383057</v>
+        <v>12.3770112991333</v>
       </c>
       <c r="G108">
         <v>18200</v>
@@ -3782,13 +4100,16 @@
         <v>-0.0005431954896644164</v>
       </c>
       <c r="I108">
-        <v>0.1165048622345655</v>
+        <v>0.05950264316513119</v>
       </c>
       <c r="J108">
         <v>0.1165048622345655</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.1165048622345655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>19.52000045776367</v>
       </c>
       <c r="F109">
-        <v>13.13039779663086</v>
+        <v>13.13039588928223</v>
       </c>
       <c r="G109">
         <v>45400</v>
@@ -3814,13 +4135,16 @@
         <v>0.06086961208985397</v>
       </c>
       <c r="I109">
-        <v>0.1577698547519</v>
+        <v>0.05948672508807808</v>
       </c>
       <c r="J109">
         <v>0.1577698547519</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.1577698547519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>18.82999992370605</v>
       </c>
       <c r="F110">
-        <v>12.666259765625</v>
+        <v>12.66625785827637</v>
       </c>
       <c r="G110">
         <v>19000</v>
@@ -3846,13 +4170,16 @@
         <v>-0.03534838718629152</v>
       </c>
       <c r="I110">
-        <v>0.1872635770063464</v>
+        <v>0.05932507618285332</v>
       </c>
       <c r="J110">
         <v>0.1872635770063464</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.1872635770063464</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>18.01000022888184</v>
       </c>
       <c r="F111">
-        <v>12.1146764755249</v>
+        <v>12.11467456817627</v>
       </c>
       <c r="G111">
         <v>15800</v>
@@ -3878,13 +4205,16 @@
         <v>-0.04354751450592831</v>
       </c>
       <c r="I111">
-        <v>0.1377132227215709</v>
+        <v>0.05921779380828999</v>
       </c>
       <c r="J111">
         <v>0.1377132227215709</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.1377132227215709</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>18.01000022888184</v>
       </c>
       <c r="F112">
-        <v>12.1146764755249</v>
+        <v>12.11467456817627</v>
       </c>
       <c r="G112">
         <v>12800</v>
@@ -3910,13 +4240,16 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0.1103576443467278</v>
+        <v>0.0589460336289662</v>
       </c>
       <c r="J112">
         <v>0.1103576443467278</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.1103576443467278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>18.68000030517578</v>
       </c>
       <c r="F113">
-        <v>12.56535816192627</v>
+        <v>12.56535911560059</v>
       </c>
       <c r="G113">
         <v>6900</v>
@@ -3942,13 +4275,16 @@
         <v>0.03720155845525741</v>
       </c>
       <c r="I113">
-        <v>0.1266586484398682</v>
+        <v>0.05876963874408129</v>
       </c>
       <c r="J113">
         <v>0.1266586484398682</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.1266586484398682</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3974,13 +4310,16 @@
         <v>0.02087791131033212</v>
       </c>
       <c r="I114">
-        <v>0.2263665248175799</v>
+        <v>0.05852909827182833</v>
       </c>
       <c r="J114">
         <v>0.2263665248175799</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.2263665248175799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>19.28000068664551</v>
       </c>
       <c r="F115">
-        <v>12.96895885467529</v>
+        <v>12.96895790100098</v>
       </c>
       <c r="G115">
         <v>7500</v>
@@ -4006,13 +4345,16 @@
         <v>0.01101211301425908</v>
       </c>
       <c r="I115">
-        <v>0.2303765534636393</v>
+        <v>0.05827207945185695</v>
       </c>
       <c r="J115">
         <v>0.2303765534636393</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.2303765534636393</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>19.3700008392334</v>
       </c>
       <c r="F116">
-        <v>13.02949714660645</v>
+        <v>13.02949905395508</v>
       </c>
       <c r="G116">
         <v>10300</v>
@@ -4038,13 +4380,16 @@
         <v>0.004668057540590853</v>
       </c>
       <c r="I116">
-        <v>0.2106250524520874</v>
+        <v>0.05801385493154605</v>
       </c>
       <c r="J116">
         <v>0.2106250524520874</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2106250524520874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>18.72999954223633</v>
       </c>
       <c r="F117">
-        <v>12.59898948669434</v>
+        <v>12.59898853302002</v>
       </c>
       <c r="G117">
         <v>14300</v>
@@ -4070,13 +4415,16 @@
         <v>-0.03304085024615822</v>
       </c>
       <c r="I117">
-        <v>0.1115726479646892</v>
+        <v>0.05785707877439449</v>
       </c>
       <c r="J117">
         <v>0.1115726479646892</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1115726479646892</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>19.65999984741211</v>
       </c>
       <c r="F118">
-        <v>13.22456359863281</v>
+        <v>13.22456932067871</v>
       </c>
       <c r="G118">
         <v>8000</v>
@@ -4102,13 +4450,16 @@
         <v>0.04965298066765156</v>
       </c>
       <c r="I118">
-        <v>0.1001678189207909</v>
+        <v>0.05776911061927838</v>
       </c>
       <c r="J118">
         <v>0.1001678189207909</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.1001678189207909</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>20.31999969482422</v>
       </c>
       <c r="F119">
-        <v>13.99108791351318</v>
+        <v>13.99108982086182</v>
       </c>
       <c r="G119">
         <v>47500</v>
@@ -4134,13 +4485,16 @@
         <v>0.03357069443207483</v>
       </c>
       <c r="I119">
-        <v>0.1037479556351326</v>
+        <v>0.05758810781002757</v>
       </c>
       <c r="J119">
         <v>0.1037479556351326</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.1037479556351326</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>21.31999969482422</v>
       </c>
       <c r="F120">
-        <v>14.67962837219238</v>
+        <v>14.67962265014648</v>
       </c>
       <c r="G120">
         <v>21300</v>
@@ -4166,13 +4520,16 @@
         <v>0.04921259916429599</v>
       </c>
       <c r="I120">
-        <v>0.1586956596104094</v>
+        <v>0.05749603466961141</v>
       </c>
       <c r="J120">
         <v>0.1586956596104094</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1586956596104094</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>21.70000076293945</v>
       </c>
       <c r="F121">
-        <v>14.94127368927002</v>
+        <v>14.94127082824707</v>
       </c>
       <c r="G121">
         <v>68800</v>
@@ -4198,13 +4555,16 @@
         <v>0.01782369012920237</v>
       </c>
       <c r="I121">
-        <v>0.1116803408838412</v>
+        <v>0.05726624639813976</v>
       </c>
       <c r="J121">
         <v>0.1116803408838412</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1116803408838412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>22.6299991607666</v>
       </c>
       <c r="F122">
-        <v>15.58161067962646</v>
+        <v>15.581618309021</v>
       </c>
       <c r="G122">
         <v>21600</v>
@@ -4230,13 +4590,16 @@
         <v>0.0428570675175024</v>
       </c>
       <c r="I122">
-        <v>0.2018055896153528</v>
+        <v>0.05713560365869735</v>
       </c>
       <c r="J122">
         <v>0.2018055896153528</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.2018055896153528</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>23.54000091552734</v>
       </c>
       <c r="F123">
-        <v>16.20817756652832</v>
+        <v>16.20818519592285</v>
       </c>
       <c r="G123">
         <v>10300</v>
@@ -4262,13 +4625,16 @@
         <v>0.04021218685409433</v>
       </c>
       <c r="I123">
-        <v>0.3070516722024963</v>
+        <v>0.05722965361843276</v>
       </c>
       <c r="J123">
         <v>0.3070516722024963</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.3070516722024963</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>22.5</v>
       </c>
       <c r="F124">
-        <v>15.49209976196289</v>
+        <v>15.49210453033447</v>
       </c>
       <c r="G124">
         <v>62700</v>
@@ -4294,13 +4660,16 @@
         <v>-0.04418015612061188</v>
       </c>
       <c r="I124">
-        <v>0.2493059252668832</v>
+        <v>0.057104217952739</v>
       </c>
       <c r="J124">
         <v>0.2493059252668832</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.2493059252668832</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>22.54999923706055</v>
       </c>
       <c r="F125">
-        <v>15.52652645111084</v>
+        <v>15.52652740478516</v>
       </c>
       <c r="G125">
         <v>23000</v>
@@ -4326,13 +4695,16 @@
         <v>0.002222188313802054</v>
       </c>
       <c r="I125">
-        <v>0.2071733869732584</v>
+        <v>0.05710338490418998</v>
       </c>
       <c r="J125">
         <v>0.2071733869732584</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2071733869732584</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>23.19000053405762</v>
       </c>
       <c r="F126">
-        <v>15.96719169616699</v>
+        <v>15.96719646453857</v>
       </c>
       <c r="G126">
         <v>11400</v>
@@ -4358,13 +4730,16 @@
         <v>0.02838143319957354</v>
       </c>
       <c r="I126">
-        <v>0.2160461932441251</v>
+        <v>0.05710158731485162</v>
       </c>
       <c r="J126">
         <v>0.2160461932441251</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.2160461932441251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>24.28000068664551</v>
       </c>
       <c r="F127">
-        <v>16.71770095825195</v>
+        <v>16.71769905090332</v>
       </c>
       <c r="G127">
         <v>101400</v>
@@ -4390,13 +4765,16 @@
         <v>0.04700302403991241</v>
       </c>
       <c r="I127">
-        <v>0.2593360903489648</v>
+        <v>0.05722586266287936</v>
       </c>
       <c r="J127">
         <v>0.2593360903489648</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.2593360903489648</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4422,13 +4800,16 @@
         <v>0.03377263886467818</v>
       </c>
       <c r="I128">
-        <v>0.2958182392346815</v>
+        <v>0.0572447181964978</v>
       </c>
       <c r="J128">
         <v>0.2958182392346815</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.2958182392346815</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>24.93000030517578</v>
       </c>
       <c r="F129">
-        <v>17.16525268554688</v>
+        <v>17.16525459289551</v>
       </c>
       <c r="G129">
         <v>52100</v>
@@ -4454,13 +4835,16 @@
         <v>-0.00677291130319857</v>
       </c>
       <c r="I129">
-        <v>0.3310198032284193</v>
+        <v>0.05723357181760894</v>
       </c>
       <c r="J129">
         <v>0.3310198032284193</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.3310198032284193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>25.77000045776367</v>
       </c>
       <c r="F130">
-        <v>17.74362373352051</v>
+        <v>17.74362182617188</v>
       </c>
       <c r="G130">
         <v>66800</v>
@@ -4486,13 +4870,16 @@
         <v>0.03369434987184872</v>
       </c>
       <c r="I130">
-        <v>0.3107833498358767</v>
+        <v>0.05705138680684094</v>
       </c>
       <c r="J130">
         <v>0.3107833498358767</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3107833498358767</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4518,13 +4905,16 @@
         <v>0.02095455951053449</v>
       </c>
       <c r="I131">
-        <v>0.2947834577302626</v>
+        <v>0.05706144868206164</v>
       </c>
       <c r="J131">
         <v>0.2947834577302626</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.2947834577302626</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>26.55999946594238</v>
       </c>
       <c r="F132">
-        <v>18.60704231262207</v>
+        <v>18.60704803466797</v>
       </c>
       <c r="G132">
         <v>36200</v>
@@ -4550,13 +4940,16 @@
         <v>0.009502090652780737</v>
       </c>
       <c r="I132">
-        <v>0.2457786044148143</v>
+        <v>0.05705950104472676</v>
       </c>
       <c r="J132">
         <v>0.2457786044148143</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.2457786044148143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>26.35000038146973</v>
       </c>
       <c r="F133">
-        <v>18.45993041992188</v>
+        <v>18.45992851257324</v>
       </c>
       <c r="G133">
         <v>134700</v>
@@ -4582,13 +4975,16 @@
         <v>-0.00790659219485057</v>
       </c>
       <c r="I133">
-        <v>0.2142856891725007</v>
+        <v>0.05694703784827493</v>
       </c>
       <c r="J133">
         <v>0.2142856891725007</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2142856891725007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>28.38999938964844</v>
       </c>
       <c r="F134">
-        <v>19.88908386230469</v>
+        <v>19.88908195495605</v>
       </c>
       <c r="G134">
         <v>243800</v>
@@ -4614,13 +5010,16 @@
         <v>0.07741931607763131</v>
       </c>
       <c r="I134">
-        <v>0.2545294053244107</v>
+        <v>0.05733393201597223</v>
       </c>
       <c r="J134">
         <v>0.2545294053244107</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.2545294053244107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>30.69000053405762</v>
       </c>
       <c r="F135">
-        <v>21.50038909912109</v>
+        <v>21.50038528442383</v>
       </c>
       <c r="G135">
         <v>101600</v>
@@ -4646,13 +5045,16 @@
         <v>0.08101448375683318</v>
       </c>
       <c r="I135">
-        <v>0.303738289738724</v>
+        <v>0.05775587399651047</v>
       </c>
       <c r="J135">
         <v>0.303738289738724</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.303738289738724</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>30.61000061035156</v>
       </c>
       <c r="F136">
-        <v>21.4443416595459</v>
+        <v>21.44433784484863</v>
       </c>
       <c r="G136">
         <v>134300</v>
@@ -4678,13 +5080,16 @@
         <v>-0.002606709752815961</v>
       </c>
       <c r="I136">
-        <v>0.3604444715711805</v>
+        <v>0.05737826290109591</v>
       </c>
       <c r="J136">
         <v>0.3604444715711805</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.3604444715711805</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4710,13 +5115,16 @@
         <v>-0.008493963531445048</v>
       </c>
       <c r="I137">
-        <v>0.3458980668872933</v>
+        <v>0.05708394113061823</v>
       </c>
       <c r="J137">
         <v>0.3458980668872933</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.3458980668872933</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>30.04999923706055</v>
       </c>
       <c r="F138">
-        <v>21.05202674865723</v>
+        <v>21.05202484130859</v>
       </c>
       <c r="G138">
         <v>89400</v>
@@ -4742,13 +5150,16 @@
         <v>-0.009884716330756493</v>
       </c>
       <c r="I138">
-        <v>0.2958170998283551</v>
+        <v>0.05693233869734973</v>
       </c>
       <c r="J138">
         <v>0.2958170998283551</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.2958170998283551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>29.76000022888184</v>
       </c>
       <c r="F139">
-        <v>20.84886169433594</v>
+        <v>20.8488597869873</v>
       </c>
       <c r="G139">
         <v>33800</v>
@@ -4774,13 +5185,16 @@
         <v>-0.009650549602046476</v>
       </c>
       <c r="I139">
-        <v>0.2257001395082512</v>
+        <v>0.05580489580266478</v>
       </c>
       <c r="J139">
         <v>0.2257001395082512</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.2257001395082512</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4806,13 +5220,16 @@
         <v>0.07661292570934819</v>
       </c>
       <c r="I140">
-        <v>0.2764940409794228</v>
+        <v>0.05568398194672341</v>
       </c>
       <c r="J140">
         <v>0.2764940409794228</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.2764940409794228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>32.7400016784668</v>
       </c>
       <c r="F141">
-        <v>22.93654632568359</v>
+        <v>22.93654823303223</v>
       </c>
       <c r="G141">
         <v>360800</v>
@@ -4838,13 +5255,16 @@
         <v>0.02184771357482118</v>
       </c>
       <c r="I141">
-        <v>0.313277227344019</v>
+        <v>0.05553897007303184</v>
       </c>
       <c r="J141">
         <v>0.313277227344019</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.313277227344019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4870,13 +5290,16 @@
         <v>-0.05436782231947335</v>
       </c>
       <c r="I142">
-        <v>0.2013969163568798</v>
+        <v>0.05578244995516754</v>
       </c>
       <c r="J142">
         <v>0.2013969163568798</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.2013969163568798</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>29.95999908447266</v>
       </c>
       <c r="F143">
-        <v>21.73111152648926</v>
+        <v>21.73111534118652</v>
       </c>
       <c r="G143">
         <v>55700</v>
@@ -4902,13 +5325,16 @@
         <v>-0.03229974255721246</v>
       </c>
       <c r="I143">
-        <v>0.1387305090315605</v>
+        <v>0.05587522721373183</v>
       </c>
       <c r="J143">
         <v>0.1387305090315605</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.1387305090315605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>26.98999977111816</v>
       </c>
       <c r="F144">
-        <v>19.57686233520508</v>
+        <v>19.57686424255371</v>
       </c>
       <c r="G144">
         <v>43300</v>
@@ -4934,13 +5360,16 @@
         <v>-0.0991321563455505</v>
       </c>
       <c r="I144">
-        <v>0.01618977085173379</v>
+        <v>0.0566490055090217</v>
       </c>
       <c r="J144">
         <v>0.01618977085173379</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.01618977085173379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4966,13 +5395,16 @@
         <v>0.004816638355601199</v>
       </c>
       <c r="I145">
-        <v>0.02922202833458654</v>
+        <v>0.05596555289274865</v>
       </c>
       <c r="J145">
         <v>0.02922202833458654</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.02922202833458654</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>28.36000061035156</v>
       </c>
       <c r="F146">
-        <v>20.5705738067627</v>
+        <v>20.57057571411133</v>
       </c>
       <c r="G146">
         <v>61400</v>
@@ -4998,13 +5430,16 @@
         <v>0.0457227040098136</v>
       </c>
       <c r="I146">
-        <v>-0.001056667134266109</v>
+        <v>0.05595531182103911</v>
       </c>
       <c r="J146">
         <v>-0.001056667134266109</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.001056667134266109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>29.38999938964844</v>
       </c>
       <c r="F147">
-        <v>21.31767845153809</v>
+        <v>21.31767272949219</v>
       </c>
       <c r="G147">
         <v>46300</v>
@@ -5030,13 +5465,16 @@
         <v>0.03631871499046868</v>
       </c>
       <c r="I147">
-        <v>-0.04235911116933766</v>
+        <v>0.0559702874267679</v>
       </c>
       <c r="J147">
         <v>-0.04235911116933766</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.04235911116933766</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>29.77000045776367</v>
       </c>
       <c r="F148">
-        <v>21.59329795837402</v>
+        <v>21.59330558776855</v>
       </c>
       <c r="G148">
         <v>27500</v>
@@ -5062,13 +5500,16 @@
         <v>0.01292960449155633</v>
       </c>
       <c r="I148">
-        <v>-0.02744201685196379</v>
+        <v>0.0558188673975701</v>
       </c>
       <c r="J148">
         <v>-0.02744201685196379</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.02744201685196379</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>24.88999938964844</v>
       </c>
       <c r="F149">
-        <v>18.59028625488281</v>
+        <v>18.59028053283691</v>
       </c>
       <c r="G149">
         <v>297200</v>
@@ -5094,13 +5535,16 @@
         <v>-0.1639234461900247</v>
       </c>
       <c r="I149">
-        <v>-0.1799011836307886</v>
+        <v>0.05781801674965754</v>
       </c>
       <c r="J149">
         <v>-0.1799011836307886</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.1799011836307886</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>24.04000091552734</v>
       </c>
       <c r="F150">
-        <v>17.95541763305664</v>
+        <v>17.95541954040527</v>
       </c>
       <c r="G150">
         <v>23100</v>
@@ -5126,13 +5570,16 @@
         <v>-0.03415020068158792</v>
       </c>
       <c r="I150">
-        <v>-0.1999999492219985</v>
+        <v>0.05790536361009768</v>
       </c>
       <c r="J150">
         <v>-0.1999999492219985</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.1999999492219985</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>24.20000076293945</v>
       </c>
       <c r="F151">
-        <v>18.07491683959961</v>
+        <v>18.07492065429688</v>
       </c>
       <c r="G151">
         <v>12200</v>
@@ -5158,13 +5605,16 @@
         <v>0.006655567442543919</v>
       </c>
       <c r="I151">
-        <v>-0.1868279376068838</v>
+        <v>0.05534994828510863</v>
       </c>
       <c r="J151">
         <v>-0.1868279376068838</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1868279376068838</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>20.11000061035156</v>
       </c>
       <c r="F152">
-        <v>15.02011299133301</v>
+        <v>15.02010917663574</v>
       </c>
       <c r="G152">
         <v>70100</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1690082654398685</v>
       </c>
       <c r="I152">
-        <v>-0.3723470650524926</v>
+        <v>0.05745256419221335</v>
       </c>
       <c r="J152">
         <v>-0.3723470650524926</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3723470650524926</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>14.94999980926514</v>
       </c>
       <c r="F153">
-        <v>11.16611862182617</v>
+        <v>11.16611957550049</v>
       </c>
       <c r="G153">
         <v>41300</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2565887938576358</v>
       </c>
       <c r="I153">
-        <v>-0.5433720512269308</v>
+        <v>0.061777376757139</v>
       </c>
       <c r="J153">
         <v>-0.5433720512269308</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.5433720512269308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>13.78999996185303</v>
       </c>
       <c r="F154">
-        <v>10.29971599578857</v>
+        <v>10.29971790313721</v>
       </c>
       <c r="G154">
         <v>8600</v>
@@ -5254,13 +5710,16 @@
         <v>-0.07759196402753188</v>
       </c>
       <c r="I154">
-        <v>-0.5545865513681777</v>
+        <v>0.06208412705167732</v>
       </c>
       <c r="J154">
         <v>-0.5545865513681777</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5545865513681777</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>14.92000007629395</v>
       </c>
       <c r="F155">
-        <v>11.41452693939209</v>
+        <v>11.41452407836914</v>
       </c>
       <c r="G155">
         <v>132000</v>
@@ -5286,13 +5745,16 @@
         <v>0.08194344579889856</v>
       </c>
       <c r="I155">
-        <v>-0.5020026524624788</v>
+        <v>0.06237270767290633</v>
       </c>
       <c r="J155">
         <v>-0.5020026524624788</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.5020026524624788</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>13.39000034332275</v>
       </c>
       <c r="F156">
-        <v>10.24400234222412</v>
+        <v>10.24399948120117</v>
       </c>
       <c r="G156">
         <v>64500</v>
@@ -5318,13 +5780,16 @@
         <v>-0.10254689846833</v>
       </c>
       <c r="I156">
-        <v>-0.503890312824259</v>
+        <v>0.06281642225077196</v>
       </c>
       <c r="J156">
         <v>-0.503890312824259</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.503890312824259</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>11.76000022888184</v>
       </c>
       <c r="F157">
-        <v>8.996973991394043</v>
+        <v>8.996970176696777</v>
       </c>
       <c r="G157">
         <v>88400</v>
@@ -5350,13 +5815,16 @@
         <v>-0.1217326417212347</v>
       </c>
       <c r="I157">
-        <v>-0.5663716863950417</v>
+        <v>0.0637443167529446</v>
       </c>
       <c r="J157">
         <v>-0.5663716863950417</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.5663716863950417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5382,13 +5850,16 @@
         <v>0.0595237921463625</v>
       </c>
       <c r="I158">
-        <v>-0.5606488092387769</v>
+        <v>0.06400429575935181</v>
       </c>
       <c r="J158">
         <v>-0.5606488092387769</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.5606488092387769</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>13.85000038146973</v>
       </c>
       <c r="F159">
-        <v>10.59592151641846</v>
+        <v>10.59592437744141</v>
       </c>
       <c r="G159">
         <v>82600</v>
@@ -5414,13 +5885,16 @@
         <v>0.1115570095559544</v>
       </c>
       <c r="I159">
-        <v>-0.5287512531780492</v>
+        <v>0.06436584158469066</v>
       </c>
       <c r="J159">
         <v>-0.5287512531780492</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.5287512531780492</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>15.89999961853027</v>
       </c>
       <c r="F160">
-        <v>12.16427326202393</v>
+        <v>12.16427135467529</v>
       </c>
       <c r="G160">
         <v>116900</v>
@@ -5446,13 +5920,16 @@
         <v>0.1480143812705805</v>
       </c>
       <c r="I160">
-        <v>-0.4659052947920349</v>
+        <v>0.06561946567563248</v>
       </c>
       <c r="J160">
         <v>-0.4659052947920349</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.4659052947920349</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>15.28999996185303</v>
       </c>
       <c r="F161">
-        <v>11.94548988342285</v>
+        <v>11.94548797607422</v>
       </c>
       <c r="G161">
         <v>56800</v>
@@ -5478,13 +5955,16 @@
         <v>-0.03836475920202764</v>
       </c>
       <c r="I161">
-        <v>-0.3856970535639297</v>
+        <v>0.06566724486964205</v>
       </c>
       <c r="J161">
         <v>-0.3856970535639297</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.3856970535639297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>17.43000030517578</v>
       </c>
       <c r="F162">
-        <v>13.61738967895508</v>
+        <v>13.61738777160645</v>
       </c>
       <c r="G162">
         <v>75700</v>
@@ -5510,13 +5990,16 @@
         <v>0.139960781469054</v>
       </c>
       <c r="I162">
-        <v>-0.2749584175798507</v>
+        <v>0.06692424808444818</v>
       </c>
       <c r="J162">
         <v>-0.2749584175798507</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.2749584175798507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>18.52000045776367</v>
       </c>
       <c r="F163">
-        <v>14.46896362304688</v>
+        <v>14.46896266937256</v>
       </c>
       <c r="G163">
         <v>60300</v>
@@ -5542,13 +6025,16 @@
         <v>0.06253586537598732</v>
       </c>
       <c r="I163">
-        <v>-0.2347107490126319</v>
+        <v>0.06702387226180676</v>
       </c>
       <c r="J163">
         <v>-0.2347107490126319</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.2347107490126319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>20.04000091552734</v>
       </c>
       <c r="F164">
-        <v>15.65648365020752</v>
+        <v>15.65647983551025</v>
       </c>
       <c r="G164">
         <v>101300</v>
@@ -5574,13 +6060,16 @@
         <v>0.08207345681389988</v>
       </c>
       <c r="I164">
-        <v>-0.00348084001490212</v>
+        <v>0.06738874958412613</v>
       </c>
       <c r="J164">
         <v>-0.00348084001490212</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.00348084001490212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>19.40999984741211</v>
       </c>
       <c r="F165">
-        <v>15.16428756713867</v>
+        <v>15.16428661346436</v>
       </c>
       <c r="G165">
         <v>75800</v>
@@ -5606,13 +6095,16 @@
         <v>-0.03143717761145903</v>
       </c>
       <c r="I165">
-        <v>0.2983277655550822</v>
+        <v>0.06740147098791764</v>
       </c>
       <c r="J165">
         <v>0.2983277655550822</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.2983277655550822</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>20.19000053405762</v>
       </c>
       <c r="F166">
-        <v>15.77366924285889</v>
+        <v>15.77367305755615</v>
       </c>
       <c r="G166">
         <v>23500</v>
@@ -5638,13 +6130,16 @@
         <v>0.04018550709826529</v>
       </c>
       <c r="I166">
-        <v>0.4641044662732974</v>
+        <v>0.06745775388321462</v>
       </c>
       <c r="J166">
         <v>0.4641044662732974</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.4641044662732974</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>20.45999908447266</v>
       </c>
       <c r="F167">
-        <v>16.07500648498535</v>
+        <v>16.07500457763672</v>
       </c>
       <c r="G167">
         <v>30200</v>
@@ -5670,13 +6165,16 @@
         <v>0.01337288475845222</v>
       </c>
       <c r="I167">
-        <v>0.3713136045475691</v>
+        <v>0.06676901304689535</v>
       </c>
       <c r="J167">
         <v>0.3713136045475691</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.3713136045475691</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>19.68000030517578</v>
       </c>
       <c r="F168">
-        <v>15.46217632293701</v>
+        <v>15.46217727661133</v>
       </c>
       <c r="G168">
         <v>223500</v>
@@ -5702,13 +6200,16 @@
         <v>-0.03812310919841755</v>
       </c>
       <c r="I168">
-        <v>0.469753532529944</v>
+        <v>0.06572222123086682</v>
       </c>
       <c r="J168">
         <v>0.469753532529944</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.469753532529944</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>19.06999969482422</v>
       </c>
       <c r="F169">
-        <v>14.98291015625</v>
+        <v>14.98291110992432</v>
       </c>
       <c r="G169">
         <v>25700</v>
@@ -5734,13 +6235,16 @@
         <v>-0.03099596549249717</v>
       </c>
       <c r="I169">
-        <v>0.6215985819447074</v>
+        <v>0.06538841981559153</v>
       </c>
       <c r="J169">
         <v>0.6215985819447074</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.6215985819447074</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>20.39999961853027</v>
       </c>
       <c r="F170">
-        <v>16.02786636352539</v>
+        <v>16.02787017822266</v>
       </c>
       <c r="G170">
         <v>49900</v>
@@ -5766,13 +6270,16 @@
         <v>0.06974304902936246</v>
       </c>
       <c r="I170">
-        <v>0.6372391297010078</v>
+        <v>0.0656742673801791</v>
       </c>
       <c r="J170">
         <v>0.6372391297010078</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.6372391297010078</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>20.1299991607666</v>
       </c>
       <c r="F171">
-        <v>15.81573104858398</v>
+        <v>15.81573295593262</v>
       </c>
       <c r="G171">
         <v>80900</v>
@@ -5798,13 +6305,16 @@
         <v>-0.01323531680453649</v>
       </c>
       <c r="I171">
-        <v>0.453429502261895</v>
+        <v>0.0655574393812168</v>
       </c>
       <c r="J171">
         <v>0.453429502261895</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.453429502261895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>17.64999961853027</v>
       </c>
       <c r="F172">
-        <v>13.8672456741333</v>
+        <v>13.86725044250488</v>
       </c>
       <c r="G172">
         <v>99700</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1231991875623051</v>
       </c>
       <c r="I172">
-        <v>0.1100628957223688</v>
+        <v>0.06645352095493821</v>
       </c>
       <c r="J172">
         <v>0.1100628957223688</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.1100628957223688</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>17.11000061035156</v>
       </c>
       <c r="F173">
-        <v>13.63887310028076</v>
+        <v>13.6388692855835</v>
       </c>
       <c r="G173">
         <v>48800</v>
@@ -5862,13 +6375,16 @@
         <v>-0.03059484531726453</v>
       </c>
       <c r="I173">
-        <v>0.1190320897998201</v>
+        <v>0.06638240006352589</v>
       </c>
       <c r="J173">
         <v>0.1190320897998201</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.1190320897998201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="F174">
-        <v>15.44834613800049</v>
+        <v>15.44834899902344</v>
       </c>
       <c r="G174">
         <v>74800</v>
@@ -5894,13 +6410,16 @@
         <v>0.1326708632050948</v>
       </c>
       <c r="I174">
-        <v>0.1118760081152594</v>
+        <v>0.067413641179824</v>
       </c>
       <c r="J174">
         <v>0.1118760081152594</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.1118760081152594</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5926,13 +6445,16 @@
         <v>-0.08359127977488956</v>
       </c>
       <c r="I175">
-        <v>-0.04103672840694994</v>
+        <v>0.06782955618376399</v>
       </c>
       <c r="J175">
         <v>-0.04103672840694994</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.04103672840694994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>20.31999969482422</v>
       </c>
       <c r="F176">
-        <v>16.19765663146973</v>
+        <v>16.1976490020752</v>
       </c>
       <c r="G176">
         <v>52700</v>
@@ -5958,13 +6480,16 @@
         <v>0.1441441122156764</v>
       </c>
       <c r="I176">
-        <v>0.01397199433658347</v>
+        <v>0.06899147585928452</v>
       </c>
       <c r="J176">
         <v>0.01397199433658347</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.01397199433658347</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>20.85000038146973</v>
       </c>
       <c r="F177">
-        <v>16.6201286315918</v>
+        <v>16.62013053894043</v>
       </c>
       <c r="G177">
         <v>92900</v>
@@ -5990,13 +6515,16 @@
         <v>0.026082711348687</v>
       </c>
       <c r="I177">
-        <v>0.07418859069437911</v>
+        <v>0.06902778231412708</v>
       </c>
       <c r="J177">
         <v>0.07418859069437911</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.07418859069437911</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="F178">
-        <v>15.04978656768799</v>
+        <v>15.04978561401367</v>
       </c>
       <c r="G178">
         <v>212700</v>
@@ -6022,13 +6550,16 @@
         <v>-0.09448446928825704</v>
       </c>
       <c r="I178">
-        <v>-0.06488367204751844</v>
+        <v>0.06948983350730828</v>
       </c>
       <c r="J178">
         <v>-0.06488367204751844</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>-0.06488367204751844</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6054,13 +6585,16 @@
         <v>0.1170551424818789</v>
       </c>
       <c r="I179">
-        <v>0.03079184243919886</v>
+        <v>0.07021563560744858</v>
       </c>
       <c r="J179">
         <v>0.03079184243919886</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.03079184243919886</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>21.70999908447266</v>
       </c>
       <c r="F180">
-        <v>17.3524169921875</v>
+        <v>17.35242080688477</v>
       </c>
       <c r="G180">
         <v>146900</v>
@@ -6086,13 +6620,16 @@
         <v>0.02939776801323002</v>
       </c>
       <c r="I180">
-        <v>0.1031503428769251</v>
+        <v>0.07025956654440769</v>
       </c>
       <c r="J180">
         <v>0.1031503428769251</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.1031503428769251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>22.45000076293945</v>
       </c>
       <c r="F181">
-        <v>17.94389533996582</v>
+        <v>17.94388961791992</v>
       </c>
       <c r="G181">
         <v>143700</v>
@@ -6118,13 +6655,16 @@
         <v>0.03408575355473231</v>
       </c>
       <c r="I181">
-        <v>0.1772417998010036</v>
+        <v>0.07014637424243553</v>
       </c>
       <c r="J181">
         <v>0.1772417998010036</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.1772417998010036</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>23.04999923706055</v>
       </c>
       <c r="F182">
-        <v>18.4234619140625</v>
+        <v>18.42345809936523</v>
       </c>
       <c r="G182">
         <v>167700</v>
@@ -6150,13 +6690,16 @@
         <v>0.02672598903032442</v>
       </c>
       <c r="I182">
-        <v>0.1299019445139182</v>
+        <v>0.06945565357916877</v>
       </c>
       <c r="J182">
         <v>0.1299019445139182</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.1299019445139182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>24</v>
       </c>
       <c r="F183">
-        <v>19.18277931213379</v>
+        <v>19.18278312683105</v>
       </c>
       <c r="G183">
         <v>55000</v>
@@ -6182,13 +6725,16 @@
         <v>0.04121478500580644</v>
       </c>
       <c r="I183">
-        <v>0.1922504222839729</v>
+        <v>0.06927280323328391</v>
       </c>
       <c r="J183">
         <v>0.1922504222839729</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.1922504222839729</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>22.71999931335449</v>
       </c>
       <c r="F184">
-        <v>18.15969848632812</v>
+        <v>18.15969657897949</v>
       </c>
       <c r="G184">
         <v>161900</v>
@@ -6214,13 +6760,16 @@
         <v>-0.05333336194356286</v>
       </c>
       <c r="I184">
-        <v>0.2872521135638642</v>
+        <v>0.0693587879814254</v>
       </c>
       <c r="J184">
         <v>0.2872521135638642</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.2872521135638642</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6246,13 +6795,16 @@
         <v>-0.05105633285518096</v>
       </c>
       <c r="I185">
-        <v>0.2600817473319414</v>
+        <v>0.06945982429071676</v>
       </c>
       <c r="J185">
         <v>0.2600817473319414</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.2600817473319414</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6278,13 +6830,16 @@
         <v>-0.06029681211792759</v>
       </c>
       <c r="I186">
-        <v>0.04540769381955045</v>
+        <v>0.06970275319100339</v>
       </c>
       <c r="J186">
         <v>0.04540769381955045</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.04540769381955045</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>18.45999908447266</v>
       </c>
       <c r="F187">
-        <v>15.04202747344971</v>
+        <v>15.04202651977539</v>
       </c>
       <c r="G187">
         <v>45700</v>
@@ -6310,13 +6865,16 @@
         <v>-0.0888450702899386</v>
       </c>
       <c r="I187">
-        <v>0.03941434946900846</v>
+        <v>0.07007875053274668</v>
       </c>
       <c r="J187">
         <v>0.03941434946900846</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.03941434946900846</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6342,13 +6900,16 @@
         <v>-0.1121343335583027</v>
       </c>
       <c r="I188">
-        <v>-0.1934055297341765</v>
+        <v>0.0697219185450996</v>
       </c>
       <c r="J188">
         <v>-0.1934055297341765</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.1934055297341765</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>18.45000076293945</v>
       </c>
       <c r="F189">
-        <v>15.0338773727417</v>
+        <v>15.03387832641602</v>
       </c>
       <c r="G189">
         <v>49300</v>
@@ -6374,13 +6935,16 @@
         <v>0.1256864826115898</v>
       </c>
       <c r="I189">
-        <v>-0.1151078932671509</v>
+        <v>0.07062002540886368</v>
       </c>
       <c r="J189">
         <v>-0.1151078932671509</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.1151078932671509</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6406,13 +6970,16 @@
         <v>-0.04986450071817616</v>
       </c>
       <c r="I190">
-        <v>-0.07150415964670409</v>
+        <v>0.07072713615161932</v>
       </c>
       <c r="J190">
         <v>-0.07150415964670409</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.07150415964670409</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6438,13 +7005,16 @@
         <v>-0.01711358429310972</v>
       </c>
       <c r="I191">
-        <v>-0.1830251580096794</v>
+        <v>0.07073244387199774</v>
       </c>
       <c r="J191">
         <v>-0.1830251580096794</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1830251580096794</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>18.03000068664551</v>
       </c>
       <c r="F192">
-        <v>14.8146505355835</v>
+        <v>14.81464290618896</v>
       </c>
       <c r="G192">
         <v>40800</v>
@@ -6470,13 +7040,16 @@
         <v>0.04643071187832115</v>
       </c>
       <c r="I192">
-        <v>-0.1695070729164214</v>
+        <v>0.07078843069455437</v>
       </c>
       <c r="J192">
         <v>-0.1695070729164214</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1695070729164214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>18.75</v>
       </c>
       <c r="F193">
-        <v>15.40623950958252</v>
+        <v>15.40624523162842</v>
       </c>
       <c r="G193">
         <v>67200</v>
@@ -6502,13 +7075,16 @@
         <v>0.03993340465526352</v>
       </c>
       <c r="I193">
-        <v>-0.164810718806185</v>
+        <v>0.07086695679771146</v>
       </c>
       <c r="J193">
         <v>-0.164810718806185</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.164810718806185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>18.98999977111816</v>
       </c>
       <c r="F194">
-        <v>15.60344696044922</v>
+        <v>15.60344314575195</v>
       </c>
       <c r="G194">
         <v>51700</v>
@@ -6534,13 +7110,16 @@
         <v>0.01279998779296876</v>
       </c>
       <c r="I194">
-        <v>-0.1761388112939536</v>
+        <v>0.07057992427125766</v>
       </c>
       <c r="J194">
         <v>-0.1761388112939536</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.1761388112939536</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>18.19000053405762</v>
       </c>
       <c r="F195">
-        <v>14.94611263275146</v>
+        <v>14.94611072540283</v>
       </c>
       <c r="G195">
         <v>109000</v>
@@ -6566,13 +7145,16 @@
         <v>-0.04212739582426239</v>
       </c>
       <c r="I195">
-        <v>-0.2420833110809326</v>
+        <v>0.07069043015905306</v>
       </c>
       <c r="J195">
         <v>-0.2420833110809326</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.2420833110809326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>16.20000076293945</v>
       </c>
       <c r="F196">
-        <v>13.31099605560303</v>
+        <v>13.31099414825439</v>
       </c>
       <c r="G196">
         <v>152700</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1094007538588158</v>
       </c>
       <c r="I196">
-        <v>-0.2869717758566426</v>
+        <v>0.07141293096459475</v>
       </c>
       <c r="J196">
         <v>-0.2869717758566426</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.2869717758566426</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6630,13 +7215,16 @@
         <v>0.05432093329154442</v>
       </c>
       <c r="I197">
-        <v>-0.2077921917072973</v>
+        <v>0.0715272251199615</v>
       </c>
       <c r="J197">
         <v>-0.2077921917072973</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.2077921917072973</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6662,13 +7250,16 @@
         <v>0.02400467501425774</v>
       </c>
       <c r="I198">
-        <v>-0.1367226271703034</v>
+        <v>0.06981236555293681</v>
       </c>
       <c r="J198">
         <v>-0.1367226271703034</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.1367226271703034</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>18.20000076293945</v>
       </c>
       <c r="F199">
-        <v>15.30673503875732</v>
+        <v>15.30673408508301</v>
       </c>
       <c r="G199">
         <v>127900</v>
@@ -6694,13 +7285,16 @@
         <v>0.04059468273943256</v>
       </c>
       <c r="I199">
-        <v>-0.01408441681624439</v>
+        <v>0.0698795796831343</v>
       </c>
       <c r="J199">
         <v>-0.01408441681624439</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.01408441681624439</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>18.5</v>
       </c>
       <c r="F200">
-        <v>15.55904197692871</v>
+        <v>15.55904102325439</v>
       </c>
       <c r="G200">
         <v>196100</v>
@@ -6726,13 +7320,16 @@
         <v>0.01648347387278326</v>
       </c>
       <c r="I200">
-        <v>0.1287370768106431</v>
+        <v>0.0679574537456288</v>
       </c>
       <c r="J200">
         <v>0.1287370768106431</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.1287370768106431</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>19.10000038146973</v>
       </c>
       <c r="F201">
-        <v>16.06365776062012</v>
+        <v>16.06365966796875</v>
       </c>
       <c r="G201">
         <v>174400</v>
@@ -6758,13 +7355,16 @@
         <v>0.0324324530524176</v>
       </c>
       <c r="I201">
-        <v>0.03523033017082189</v>
+        <v>0.06740933372676393</v>
       </c>
       <c r="J201">
         <v>0.03523033017082189</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.03523033017082189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6790,13 +7390,16 @@
         <v>0.03089005972797221</v>
       </c>
       <c r="I202">
-        <v>0.1232173281691662</v>
+        <v>0.06731373857097601</v>
       </c>
       <c r="J202">
         <v>0.1232173281691662</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.1232173281691662</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>20.51000022888184</v>
       </c>
       <c r="F203">
-        <v>17.28023910522461</v>
+        <v>17.28024482727051</v>
       </c>
       <c r="G203">
         <v>315900</v>
@@ -6822,13 +7425,16 @@
         <v>0.04164548870406959</v>
       </c>
       <c r="I203">
-        <v>0.1903656862326177</v>
+        <v>0.0670656070623362</v>
       </c>
       <c r="J203">
         <v>0.1903656862326177</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.1903656862326177</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6854,13 +7460,16 @@
         <v>0.05948314479472838</v>
       </c>
       <c r="I204">
-        <v>0.2052134617128074</v>
+        <v>0.06673451162977488</v>
       </c>
       <c r="J204">
         <v>0.2052134617128074</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.2052134617128074</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>20.25</v>
       </c>
       <c r="F205">
-        <v>17.06118583679199</v>
+        <v>17.06118965148926</v>
       </c>
       <c r="G205">
         <v>281400</v>
@@ -6886,13 +7495,16 @@
         <v>-0.06810858598315528</v>
       </c>
       <c r="I205">
-        <v>0.08000000000000007</v>
+        <v>0.06665602278628324</v>
       </c>
       <c r="J205">
         <v>0.08000000000000007</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.08000000000000007</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6918,13 +7530,16 @@
         <v>0.01679013099199467</v>
       </c>
       <c r="I206">
-        <v>0.08425489208815917</v>
+        <v>0.06655804703289332</v>
       </c>
       <c r="J206">
         <v>0.08425489208815917</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.08425489208815917</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>21.29000091552734</v>
       </c>
       <c r="F207">
-        <v>17.93741607666016</v>
+        <v>17.93741989135742</v>
       </c>
       <c r="G207">
         <v>291000</v>
@@ -6950,13 +7565,16 @@
         <v>0.03399712276599831</v>
       </c>
       <c r="I207">
-        <v>0.1704233254784966</v>
+        <v>0.06523987119497274</v>
       </c>
       <c r="J207">
         <v>0.1704233254784966</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.1704233254784966</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>21.85000038146973</v>
       </c>
       <c r="F208">
-        <v>18.40923309326172</v>
+        <v>18.40923500061035</v>
       </c>
       <c r="G208">
         <v>210600</v>
@@ -6982,13 +7600,16 @@
         <v>0.02630340262380915</v>
       </c>
       <c r="I208">
-        <v>0.3487653921261356</v>
+        <v>0.06509627539059056</v>
       </c>
       <c r="J208">
         <v>0.3487653921261356</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.3487653921261356</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>20.79999923706055</v>
       </c>
       <c r="F209">
-        <v>17.78473281860352</v>
+        <v>17.78474235534668</v>
       </c>
       <c r="G209">
         <v>173300</v>
@@ -7014,13 +7635,16 @@
         <v>-0.04805497144520199</v>
       </c>
       <c r="I209">
-        <v>0.2177985556189228</v>
+        <v>0.06528400557792559</v>
       </c>
       <c r="J209">
         <v>0.2177985556189228</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.2177985556189228</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>22.88999938964844</v>
       </c>
       <c r="F210">
-        <v>19.5717601776123</v>
+        <v>19.57176208496094</v>
       </c>
       <c r="G210">
         <v>121300</v>
@@ -7046,13 +7670,16 @@
         <v>0.1004807802523386</v>
       </c>
       <c r="I210">
-        <v>0.3087478381473439</v>
+        <v>0.06570001819858999</v>
       </c>
       <c r="J210">
         <v>0.3087478381473439</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.3087478381473439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7078,13 +7705,16 @@
         <v>-0.01616421763873399</v>
       </c>
       <c r="I211">
-        <v>0.2373626106445559</v>
+        <v>0.06569737403525777</v>
       </c>
       <c r="J211">
         <v>0.2373626106445559</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.2373626106445559</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>23.79999923706055</v>
       </c>
       <c r="F212">
-        <v>20.3498420715332</v>
+        <v>20.34984397888184</v>
       </c>
       <c r="G212">
         <v>174600</v>
@@ -7110,13 +7740,16 @@
         <v>0.05683831053633925</v>
       </c>
       <c r="I212">
-        <v>0.2864864452465161</v>
+        <v>0.06580294053790967</v>
       </c>
       <c r="J212">
         <v>0.2864864452465161</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2864864452465161</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7142,13 +7775,16 @@
         <v>0.0512605571349507</v>
       </c>
       <c r="I213">
-        <v>0.3099476417831573</v>
+        <v>0.06572849882869493</v>
       </c>
       <c r="J213">
         <v>0.3099476417831573</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.3099476417831573</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7174,13 +7810,16 @@
         <v>0.009992006212071303</v>
       </c>
       <c r="I214">
-        <v>0.2833925735072673</v>
+        <v>0.06564061298724956</v>
       </c>
       <c r="J214">
         <v>0.2833925735072673</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.2833925735072673</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7206,13 +7845,16 @@
         <v>0.02611791988350909</v>
       </c>
       <c r="I215">
-        <v>0.2642613367045015</v>
+        <v>0.06552697873472825</v>
       </c>
       <c r="J215">
         <v>0.2642613367045015</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.2642613367045015</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>24.31999969482422</v>
       </c>
       <c r="F216">
-        <v>20.86543846130371</v>
+        <v>20.86543655395508</v>
       </c>
       <c r="G216">
         <v>131900</v>
@@ -7238,13 +7880,16 @@
         <v>-0.06209026576949928</v>
       </c>
       <c r="I216">
-        <v>0.1191900693579739</v>
+        <v>0.06582138064025796</v>
       </c>
       <c r="J216">
         <v>0.1191900693579739</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.1191900693579739</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>25.70000076293945</v>
       </c>
       <c r="F217">
-        <v>22.04941940307617</v>
+        <v>22.04941368103027</v>
       </c>
       <c r="G217">
         <v>92200</v>
@@ -7270,13 +7915,16 @@
         <v>0.05674346568388011</v>
       </c>
       <c r="I217">
-        <v>0.2691358401451582</v>
+        <v>0.06596866689266616</v>
       </c>
       <c r="J217">
         <v>0.2691358401451582</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.2691358401451582</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="F218">
-        <v>22.40975570678711</v>
+        <v>22.40975761413574</v>
       </c>
       <c r="G218">
         <v>232900</v>
@@ -7302,13 +7950,16 @@
         <v>0.016342414934851</v>
       </c>
       <c r="I218">
-        <v>0.2685770104742062</v>
+        <v>0.06570258008249355</v>
       </c>
       <c r="J218">
         <v>0.2685770104742062</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.2685770104742062</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>25.70000076293945</v>
       </c>
       <c r="F219">
-        <v>22.04941940307617</v>
+        <v>22.04941368103027</v>
       </c>
       <c r="G219">
         <v>92800</v>
@@ -7334,13 +7985,16 @@
         <v>-0.01607963486980779</v>
       </c>
       <c r="I219">
-        <v>0.207139486038997</v>
+        <v>0.065730359629831</v>
       </c>
       <c r="J219">
         <v>0.207139486038997</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.207139486038997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>25.92000007629395</v>
       </c>
       <c r="F220">
-        <v>22.23816680908203</v>
+        <v>22.2381649017334</v>
       </c>
       <c r="G220">
         <v>67000</v>
@@ -7366,13 +8020,16 @@
         <v>0.008560284312199018</v>
       </c>
       <c r="I220">
-        <v>0.1862700056644324</v>
+        <v>0.06570898394967316</v>
       </c>
       <c r="J220">
         <v>0.1862700056644324</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.1862700056644324</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>25.60000038146973</v>
       </c>
       <c r="F221">
-        <v>22.36787605285645</v>
+        <v>22.36787986755371</v>
       </c>
       <c r="G221">
         <v>389100</v>
@@ -7398,13 +8055,16 @@
         <v>-0.01234566720224994</v>
       </c>
       <c r="I221">
-        <v>0.23076929425347</v>
+        <v>0.06571368585248372</v>
       </c>
       <c r="J221">
         <v>0.23076929425347</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.23076929425347</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>24.11000061035156</v>
       </c>
       <c r="F222">
-        <v>21.06600379943848</v>
+        <v>21.06599617004395</v>
       </c>
       <c r="G222">
         <v>238900</v>
@@ -7430,13 +8090,16 @@
         <v>-0.05820311519200927</v>
       </c>
       <c r="I222">
-        <v>0.05329843832389303</v>
+        <v>0.06568058127834227</v>
       </c>
       <c r="J222">
         <v>0.05329843832389303</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.05329843832389303</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>24.60000038146973</v>
       </c>
       <c r="F223">
-        <v>21.4941349029541</v>
+        <v>21.49413871765137</v>
       </c>
       <c r="G223">
         <v>73400</v>
@@ -7462,13 +8125,16 @@
         <v>0.02032350720504694</v>
       </c>
       <c r="I223">
-        <v>0.09236233931731497</v>
+        <v>0.06569362830338867</v>
       </c>
       <c r="J223">
         <v>0.09236233931731497</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.09236233931731497</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>24.13999938964844</v>
       </c>
       <c r="F224">
-        <v>21.09221076965332</v>
+        <v>21.09221267700195</v>
       </c>
       <c r="G224">
         <v>44600</v>
@@ -7494,13 +8160,16 @@
         <v>-0.0186992270198415</v>
       </c>
       <c r="I224">
-        <v>0.01428572115491722</v>
+        <v>0.06571720773008355</v>
       </c>
       <c r="J224">
         <v>0.01428572115491722</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.01428572115491722</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>23.76000022888184</v>
       </c>
       <c r="F225">
-        <v>20.76018905639648</v>
+        <v>20.76018714904785</v>
       </c>
       <c r="G225">
         <v>77800</v>
@@ -7526,13 +8195,16 @@
         <v>-0.01574147350349775</v>
       </c>
       <c r="I225">
-        <v>-0.05035972045679393</v>
+        <v>0.06559974275355002</v>
       </c>
       <c r="J225">
         <v>-0.05035972045679393</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.05035972045679393</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>24.90999984741211</v>
       </c>
       <c r="F226">
-        <v>21.76499557495117</v>
+        <v>21.76499366760254</v>
       </c>
       <c r="G226">
         <v>94900</v>
@@ -7558,13 +8230,16 @@
         <v>0.04840065687930317</v>
       </c>
       <c r="I226">
-        <v>-0.01424616556510427</v>
+        <v>0.06552285228549344</v>
       </c>
       <c r="J226">
         <v>-0.01424616556510427</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.01424616556510427</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>23.90999984741211</v>
       </c>
       <c r="F227">
-        <v>20.96319961547852</v>
+        <v>20.96320533752441</v>
       </c>
       <c r="G227">
         <v>606800</v>
@@ -7590,13 +8265,16 @@
         <v>-0.04014452051889073</v>
       </c>
       <c r="I227">
-        <v>-0.0779020607014983</v>
+        <v>0.06560984557761593</v>
       </c>
       <c r="J227">
         <v>-0.0779020607014983</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.0779020607014983</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>23.98999977111816</v>
       </c>
       <c r="F228">
-        <v>21.03334045410156</v>
+        <v>21.03334426879883</v>
       </c>
       <c r="G228">
         <v>407800</v>
@@ -7622,13 +8300,16 @@
         <v>0.003345877215248594</v>
       </c>
       <c r="I228">
-        <v>-0.01356907598055135</v>
+        <v>0.06560834869845697</v>
       </c>
       <c r="J228">
         <v>-0.01356907598055135</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.01356907598055135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>25.59000015258789</v>
       </c>
       <c r="F229">
-        <v>22.43614768981934</v>
+        <v>22.4361457824707</v>
       </c>
       <c r="G229">
         <v>90800</v>
@@ -7654,13 +8335,16 @@
         <v>0.06669447256085359</v>
       </c>
       <c r="I229">
-        <v>-0.004280179264048445</v>
+        <v>0.06565260195709996</v>
       </c>
       <c r="J229">
         <v>-0.004280179264048445</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.004280179264048445</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>25.28000068664551</v>
       </c>
       <c r="F230">
-        <v>22.16435241699219</v>
+        <v>22.16435432434082</v>
       </c>
       <c r="G230">
         <v>66100</v>
@@ -7686,13 +8370,16 @@
         <v>-0.01211408613106368</v>
       </c>
       <c r="I230">
-        <v>-0.03215926973961547</v>
+        <v>0.06556838816579316</v>
       </c>
       <c r="J230">
         <v>-0.03215926973961547</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.03215926973961547</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7718,13 +8405,16 @@
         <v>0.03283227457127857</v>
       </c>
       <c r="I231">
-        <v>0.01595330098212866</v>
+        <v>0.06546708585411219</v>
       </c>
       <c r="J231">
         <v>0.01595330098212866</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>0.01595330098212866</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>26.56999969482422</v>
       </c>
       <c r="F232">
-        <v>23.29536819458008</v>
+        <v>23.29537010192871</v>
       </c>
       <c r="G232">
         <v>182200</v>
@@ -7750,13 +8440,16 @@
         <v>0.01761773549290102</v>
       </c>
       <c r="I232">
-        <v>0.02507714570281783</v>
+        <v>0.06547485155858861</v>
       </c>
       <c r="J232">
         <v>0.02507714570281783</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>0.02507714570281783</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7782,13 +8475,16 @@
         <v>-0.03312002901294819</v>
       </c>
       <c r="I233">
-        <v>0.003515630908077494</v>
+        <v>0.06550295334532504</v>
       </c>
       <c r="J233">
         <v>0.003515630908077494</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>0.003515630908077494</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>26.5</v>
       </c>
       <c r="F234">
-        <v>23.50850486755371</v>
+        <v>23.50850868225098</v>
       </c>
       <c r="G234">
         <v>122800</v>
@@ -7814,13 +8510,16 @@
         <v>0.03152975667978497</v>
       </c>
       <c r="I234">
-        <v>0.09912896429468776</v>
+        <v>0.06553205026970645</v>
       </c>
       <c r="J234">
         <v>0.09912896429468776</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>0.09912896429468776</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7846,13 +8545,16 @@
         <v>-0.07660379949605689</v>
       </c>
       <c r="I235">
-        <v>-0.005284596182899226</v>
+        <v>0.06595070410895895</v>
       </c>
       <c r="J235">
         <v>-0.005284596182899226</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.005284596182899226</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7878,13 +8580,16 @@
         <v>-0.04372700142415886</v>
       </c>
       <c r="I236">
-        <v>-0.03065450662088609</v>
+        <v>0.06609575512920411</v>
       </c>
       <c r="J236">
         <v>-0.03065450662088609</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.03065450662088609</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>25</v>
       </c>
       <c r="F237">
-        <v>22.17784118652344</v>
+        <v>22.1778392791748</v>
       </c>
       <c r="G237">
         <v>157200</v>
@@ -7910,13 +8615,16 @@
         <v>0.06837608579286902</v>
       </c>
       <c r="I237">
-        <v>0.05218854205274215</v>
+        <v>0.06626866601510145</v>
       </c>
       <c r="J237">
         <v>0.05218854205274215</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>0.05218854205274215</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>24.72999954223633</v>
       </c>
       <c r="F238">
-        <v>21.93831443786621</v>
+        <v>21.93831825256348</v>
       </c>
       <c r="G238">
         <v>283600</v>
@@ -7942,13 +8650,16 @@
         <v>-0.01080001831054689</v>
       </c>
       <c r="I238">
-        <v>-0.007226025944535697</v>
+        <v>0.06615345612705757</v>
       </c>
       <c r="J238">
         <v>-0.007226025944535697</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.007226025944535697</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>23.84000015258789</v>
       </c>
       <c r="F239">
-        <v>21.27890014648438</v>
+        <v>21.27889823913574</v>
       </c>
       <c r="G239">
         <v>163300</v>
@@ -7974,13 +8685,16 @@
         <v>-0.03598865370492255</v>
       </c>
       <c r="I239">
-        <v>-0.002927632591841922</v>
+        <v>0.06619830936711515</v>
       </c>
       <c r="J239">
         <v>-0.002927632591841922</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.002927632591841922</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>23.3700008392334</v>
       </c>
       <c r="F240">
-        <v>20.85939407348633</v>
+        <v>20.8593921661377</v>
       </c>
       <c r="G240">
         <v>320900</v>
@@ -8006,13 +8720,16 @@
         <v>-0.01971473617224251</v>
       </c>
       <c r="I240">
-        <v>-0.02584405743226348</v>
+        <v>0.06609798675305363</v>
       </c>
       <c r="J240">
         <v>-0.02584405743226348</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.02584405743226348</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>22.73999977111816</v>
       </c>
       <c r="F241">
-        <v>20.29706954956055</v>
+        <v>20.29707145690918</v>
       </c>
       <c r="G241">
         <v>305900</v>
@@ -8038,13 +8755,16 @@
         <v>-0.02695768273390875</v>
       </c>
       <c r="I241">
-        <v>-0.1113716437856882</v>
+        <v>0.06614001887158226</v>
       </c>
       <c r="J241">
         <v>-0.1113716437856882</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.1113716437856882</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8070,13 +8790,16 @@
         <v>0.08179422291437</v>
       </c>
       <c r="I242">
-        <v>-0.02689874551842875</v>
+        <v>0.06643387775787581</v>
       </c>
       <c r="J242">
         <v>-0.02689874551842875</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.02689874551842875</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>24.71999931335449</v>
       </c>
       <c r="F243">
-        <v>22.06436347961426</v>
+        <v>22.06436157226562</v>
       </c>
       <c r="G243">
         <v>328200</v>
@@ -8102,13 +8825,16 @@
         <v>0.004878005285526621</v>
       </c>
       <c r="I243">
-        <v>-0.05323635635787738</v>
+        <v>0.06634560773782731</v>
       </c>
       <c r="J243">
         <v>-0.05323635635787738</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.05323635635787738</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>24.90999984741211</v>
       </c>
       <c r="F244">
-        <v>22.23395156860352</v>
+        <v>22.23394966125488</v>
       </c>
       <c r="G244">
         <v>1122700</v>
@@ -8134,13 +8860,16 @@
         <v>0.007686105960163836</v>
       </c>
       <c r="I244">
-        <v>-0.06247647220468255</v>
+        <v>0.06620668574160146</v>
       </c>
       <c r="J244">
         <v>-0.06247647220468255</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.06247647220468255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8166,13 +8895,16 @@
         <v>-0.07065436530159919</v>
       </c>
       <c r="I245">
-        <v>-0.09887118967397557</v>
+        <v>0.06654811066172224</v>
       </c>
       <c r="J245">
         <v>-0.09887118967397557</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.09887118967397557</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8198,13 +8930,16 @@
         <v>0.04017280002161927</v>
       </c>
       <c r="I246">
-        <v>-0.09132075759599789</v>
+        <v>0.06659535557300474</v>
       </c>
       <c r="J246">
         <v>-0.09132075759599789</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.09132075759599789</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>24.84000015258789</v>
       </c>
       <c r="F247">
-        <v>22.49239349365234</v>
+        <v>22.49239540100098</v>
       </c>
       <c r="G247">
         <v>107700</v>
@@ -8230,13 +8965,16 @@
         <v>0.0315614713990775</v>
       </c>
       <c r="I247">
-        <v>0.01512059050330539</v>
+        <v>0.0665236865821363</v>
       </c>
       <c r="J247">
         <v>0.01512059050330539</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.01512059050330539</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>25.05999946594238</v>
       </c>
       <c r="F248">
-        <v>22.69160079956055</v>
+        <v>22.69160270690918</v>
       </c>
       <c r="G248">
         <v>174600</v>
@@ -8262,13 +9000,16 @@
         <v>0.008856655072587483</v>
       </c>
       <c r="I248">
-        <v>0.07094016557579641</v>
+        <v>0.06646397709072548</v>
       </c>
       <c r="J248">
         <v>0.07094016557579641</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.07094016557579641</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>24.47999954223633</v>
       </c>
       <c r="F249">
-        <v>22.16641426086426</v>
+        <v>22.16641616821289</v>
       </c>
       <c r="G249">
         <v>84900</v>
@@ -8294,13 +9035,16 @@
         <v>-0.02314445076083504</v>
       </c>
       <c r="I249">
-        <v>-0.0208000183105469</v>
+        <v>0.06649944395921061</v>
       </c>
       <c r="J249">
         <v>-0.0208000183105469</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.0208000183105469</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8326,13 +9070,16 @@
         <v>-0.03880714351941672</v>
       </c>
       <c r="I250">
-        <v>-0.04852401446839272</v>
+        <v>0.06653943514366042</v>
       </c>
       <c r="J250">
         <v>-0.04852401446839272</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.04852401446839272</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>24.14999961853027</v>
       </c>
       <c r="F251">
-        <v>22.15043449401855</v>
+        <v>22.15043258666992</v>
       </c>
       <c r="G251">
         <v>159000</v>
@@ -8358,13 +9105,16 @@
         <v>0.02634929510378847</v>
       </c>
       <c r="I251">
-        <v>0.01300333321972458</v>
+        <v>0.06655450511030653</v>
       </c>
       <c r="J251">
         <v>0.01300333321972458</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.01300333321972458</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>24.73999977111816</v>
       </c>
       <c r="F252">
-        <v>22.69158172607422</v>
+        <v>22.69158554077148</v>
       </c>
       <c r="G252">
         <v>223600</v>
@@ -8390,13 +9140,16 @@
         <v>0.02443064852618804</v>
       </c>
       <c r="I252">
-        <v>0.05862211735931222</v>
+        <v>0.06658343502664277</v>
       </c>
       <c r="J252">
         <v>0.05862211735931222</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.05862211735931222</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>25.45000076293945</v>
       </c>
       <c r="F253">
-        <v>23.34280014038086</v>
+        <v>23.34279632568359</v>
       </c>
       <c r="G253">
         <v>176400</v>
@@ -8422,13 +9175,16 @@
         <v>0.02869850438115829</v>
       </c>
       <c r="I253">
-        <v>0.1191733077879462</v>
+        <v>0.06662299819195279</v>
       </c>
       <c r="J253">
         <v>0.1191733077879462</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.1191733077879462</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8454,13 +9210,16 @@
         <v>0.05343806138439788</v>
       </c>
       <c r="I254">
-        <v>0.08983735976432605</v>
+        <v>0.06643050313280177</v>
       </c>
       <c r="J254">
         <v>0.08983735976432605</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.08983735976432605</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>28.07999992370605</v>
       </c>
       <c r="F255">
-        <v>25.75503730773926</v>
+        <v>25.75504302978516</v>
       </c>
       <c r="G255">
         <v>120200</v>
@@ -8486,13 +9245,16 @@
         <v>0.04737040220299127</v>
       </c>
       <c r="I255">
-        <v>0.1359223585631892</v>
+        <v>0.06616375824345473</v>
       </c>
       <c r="J255">
         <v>0.1359223585631892</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.1359223585631892</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>29.45000076293945</v>
       </c>
       <c r="F256">
-        <v>27.0116081237793</v>
+        <v>27.01160430908203</v>
       </c>
       <c r="G256">
         <v>148800</v>
@@ -8518,13 +9280,16 @@
         <v>0.04878920380896434</v>
       </c>
       <c r="I256">
-        <v>0.1822561599091701</v>
+        <v>0.06630314206953765</v>
       </c>
       <c r="J256">
         <v>0.1822561599091701</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1822561599091701</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>28.93000030517578</v>
       </c>
       <c r="F257">
-        <v>26.85580253601074</v>
+        <v>26.85580062866211</v>
       </c>
       <c r="G257">
         <v>193800</v>
@@ -8550,13 +9315,16 @@
         <v>-0.01765706092673691</v>
       </c>
       <c r="I257">
-        <v>0.2496760596928451</v>
+        <v>0.06632052237346613</v>
       </c>
       <c r="J257">
         <v>0.2496760596928451</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.2496760596928451</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>30.73999977111816</v>
       </c>
       <c r="F258">
-        <v>28.53603363037109</v>
+        <v>28.53602981567383</v>
       </c>
       <c r="G258">
         <v>190300</v>
@@ -8582,13 +9350,16 @@
         <v>0.06256479249392055</v>
       </c>
       <c r="I258">
-        <v>0.2765780676292915</v>
+        <v>0.06654216212627896</v>
       </c>
       <c r="J258">
         <v>0.2765780676292915</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.2765780676292915</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>30.63999938964844</v>
       </c>
       <c r="F259">
-        <v>28.44319725036621</v>
+        <v>28.44320106506348</v>
       </c>
       <c r="G259">
         <v>140100</v>
@@ -8614,13 +9385,16 @@
         <v>-0.003253102869691049</v>
       </c>
       <c r="I259">
-        <v>0.2334943317806819</v>
+        <v>0.0665349421189199</v>
       </c>
       <c r="J259">
         <v>0.2334943317806819</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.2334943317806819</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>31.38999938964844</v>
       </c>
       <c r="F260">
-        <v>29.13942527770996</v>
+        <v>29.13942718505859</v>
       </c>
       <c r="G260">
         <v>75300</v>
@@ -8646,13 +9420,16 @@
         <v>0.02447780727611182</v>
       </c>
       <c r="I260">
-        <v>0.2525937772787583</v>
+        <v>0.06621645930730612</v>
       </c>
       <c r="J260">
         <v>0.2525937772787583</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.2525937772787583</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>31.70000076293945</v>
       </c>
       <c r="F261">
-        <v>29.42720031738281</v>
+        <v>29.42719841003418</v>
       </c>
       <c r="G261">
         <v>241400</v>
@@ -8678,13 +9455,16 @@
         <v>0.009875800551727432</v>
       </c>
       <c r="I261">
-        <v>0.2949346959033299</v>
+        <v>0.06619543595477728</v>
       </c>
       <c r="J261">
         <v>0.2949346959033299</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.2949346959033299</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8710,13 +9490,16 @@
         <v>-0.005362778302917093</v>
       </c>
       <c r="I262">
-        <v>0.3399914902909635</v>
+        <v>0.06599577249667005</v>
       </c>
       <c r="J262">
         <v>0.3399914902909635</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.3399914902909635</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8742,13 +9525,16 @@
         <v>0.006343128805434084</v>
       </c>
       <c r="I263">
-        <v>0.313871637409465</v>
+        <v>0.06591934061904602</v>
       </c>
       <c r="J263">
         <v>0.313871637409465</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.313871637409465</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>33.56999969482422</v>
       </c>
       <c r="F264">
-        <v>31.33974647521973</v>
+        <v>31.33974456787109</v>
       </c>
       <c r="G264">
         <v>242300</v>
@@ -8774,13 +9560,16 @@
         <v>0.05798929023426669</v>
       </c>
       <c r="I264">
-        <v>0.3569118838074656</v>
+        <v>0.06543820708417206</v>
       </c>
       <c r="J264">
         <v>0.3569118838074656</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.3569118838074656</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8806,13 +9595,16 @@
         <v>-0.05242777017818057</v>
       </c>
       <c r="I265">
-        <v>0.2499017097187841</v>
+        <v>0.0656406645451436</v>
       </c>
       <c r="J265">
         <v>0.2499017097187841</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.2499017097187841</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>31.96999931335449</v>
       </c>
       <c r="F266">
-        <v>29.84604072570801</v>
+        <v>29.84604454040527</v>
       </c>
       <c r="G266">
         <v>192200</v>
@@ -8838,13 +9630,16 @@
         <v>0.005029860109976303</v>
       </c>
       <c r="I266">
-        <v>0.1924654960910024</v>
+        <v>0.06552592159800397</v>
       </c>
       <c r="J266">
         <v>0.1924654960910024</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1924654960910024</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8870,13 +9665,16 @@
         <v>0.005004746893876311</v>
       </c>
       <c r="I267">
-        <v>0.1442308103779599</v>
+        <v>0.06545523722390856</v>
       </c>
       <c r="J267">
         <v>0.1442308103779599</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.1442308103779599</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F268">
-        <v>29.26723289489746</v>
+        <v>29.26723670959473</v>
       </c>
       <c r="G268">
         <v>361500</v>
@@ -8902,13 +9700,16 @@
         <v>-0.02427639778137314</v>
       </c>
       <c r="I268">
-        <v>0.06451611440775507</v>
+        <v>0.0654956245215931</v>
       </c>
       <c r="J268">
         <v>0.06451611440775507</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.06451611440775507</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8934,13 +9735,16 @@
         <v>-0.02679426291440801</v>
       </c>
       <c r="I269">
-        <v>0.05461458372067085</v>
+        <v>0.06373795805846612</v>
       </c>
       <c r="J269">
         <v>0.05461458372067085</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.05461458372067085</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>31.71999931335449</v>
       </c>
       <c r="F270">
-        <v>30.08833122253418</v>
+        <v>30.08832931518555</v>
       </c>
       <c r="G270">
         <v>2116800</v>
@@ -8966,13 +9770,16 @@
         <v>0.03965909784973487</v>
       </c>
       <c r="I270">
-        <v>0.03188027161786411</v>
+        <v>0.06372506092263884</v>
       </c>
       <c r="J270">
         <v>0.03188027161786411</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.03188027161786411</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>31.04000091552734</v>
       </c>
       <c r="F271">
-        <v>29.44331169128418</v>
+        <v>29.44330787658691</v>
       </c>
       <c r="G271">
         <v>143400</v>
@@ -8998,13 +9805,16 @@
         <v>-0.0214375287688251</v>
       </c>
       <c r="I271">
-        <v>0.01305488034748614</v>
+        <v>0.06376824617816827</v>
       </c>
       <c r="J271">
         <v>0.01305488034748614</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>0.01305488034748614</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>30.19000053405762</v>
       </c>
       <c r="F272">
-        <v>28.63703346252441</v>
+        <v>28.63703536987305</v>
       </c>
       <c r="G272">
         <v>130900</v>
@@ -9030,13 +9840,16 @@
         <v>-0.0273840321004799</v>
       </c>
       <c r="I272">
-        <v>-0.03822869955156949</v>
+        <v>0.06181722236875331</v>
       </c>
       <c r="J272">
         <v>-0.03822869955156949</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.03822869955156949</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9062,13 +9875,16 @@
         <v>-0.07982775106921136</v>
       </c>
       <c r="I273">
-        <v>-0.1236593054242707</v>
+        <v>0.05747719785631008</v>
       </c>
       <c r="J273">
         <v>-0.1236593054242707</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.1236593054242707</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9094,13 +9910,16 @@
         <v>0.02339811383959911</v>
       </c>
       <c r="I274">
-        <v>-0.09831907116902561</v>
+        <v>0.05696814643526377</v>
       </c>
       <c r="J274">
         <v>-0.09831907116902561</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.09831907116902561</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9126,13 +9945,16 @@
         <v>-0.07492089501411159</v>
       </c>
       <c r="I275">
-        <v>-0.1711314334545709</v>
+        <v>0.05704868279867758</v>
       </c>
       <c r="J275">
         <v>-0.1711314334545709</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1711314334545709</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>28.32999992370605</v>
       </c>
       <c r="F276">
-        <v>27.00239562988281</v>
+        <v>27.00239372253418</v>
       </c>
       <c r="G276">
         <v>79900</v>
@@ -9158,13 +9980,16 @@
         <v>0.07718634013437309</v>
       </c>
       <c r="I276">
-        <v>-0.156091743185987</v>
+        <v>0.05652285303184879</v>
       </c>
       <c r="J276">
         <v>-0.156091743185987</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.156091743185987</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>29.63999938964844</v>
       </c>
       <c r="F277">
-        <v>28.25100708007812</v>
+        <v>28.25100517272949</v>
       </c>
       <c r="G277">
         <v>67900</v>
@@ -9190,13 +10015,16 @@
         <v>0.04624071547724218</v>
       </c>
       <c r="I277">
-        <v>-0.06821754519729784</v>
+        <v>0.05535493242313395</v>
       </c>
       <c r="J277">
         <v>-0.06821754519729784</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.06821754519729784</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>29.88999938964844</v>
       </c>
       <c r="F278">
-        <v>28.48929023742676</v>
+        <v>28.48928833007812</v>
       </c>
       <c r="G278">
         <v>238000</v>
@@ -9222,13 +10050,16 @@
         <v>0.008434548081917681</v>
       </c>
       <c r="I278">
-        <v>-0.0650609936934593</v>
+        <v>0.05516105632035411</v>
       </c>
       <c r="J278">
         <v>-0.0650609936934593</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.0650609936934593</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>31.73999977111816</v>
       </c>
       <c r="F279">
-        <v>30.25259399414062</v>
+        <v>30.25259590148926</v>
       </c>
       <c r="G279">
         <v>258600</v>
@@ -9254,13 +10085,16 @@
         <v>0.06189362392929398</v>
       </c>
       <c r="I279">
-        <v>-0.01213822857242586</v>
+        <v>0.05456681436947172</v>
       </c>
       <c r="J279">
         <v>-0.01213822857242586</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.01213822857242586</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>29.64999961853027</v>
       </c>
       <c r="F280">
-        <v>28.26054000854492</v>
+        <v>28.26053619384766</v>
       </c>
       <c r="G280">
         <v>310000</v>
@@ -9286,13 +10120,16 @@
         <v>-0.06584751630936325</v>
       </c>
       <c r="I280">
-        <v>-0.0542264989554605</v>
+        <v>0.05344955368041362</v>
       </c>
       <c r="J280">
         <v>-0.0542264989554605</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.0542264989554605</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>30.84000015258789</v>
       </c>
       <c r="F281">
-        <v>30.11618423461914</v>
+        <v>30.11618232727051</v>
       </c>
       <c r="G281">
         <v>403500</v>
@@ -9318,13 +10155,16 @@
         <v>0.04013492577969235</v>
       </c>
       <c r="I281">
-        <v>0.0108161232786117</v>
+        <v>0.05337472951107583</v>
       </c>
       <c r="J281">
         <v>0.0108161232786117</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>0.0108161232786117</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>30.82999992370605</v>
       </c>
       <c r="F282">
-        <v>30.10641860961914</v>
+        <v>30.10641670227051</v>
       </c>
       <c r="G282">
         <v>461200</v>
@@ -9350,13 +10190,16 @@
         <v>-0.0003242616352904237</v>
       </c>
       <c r="I282">
-        <v>-0.0280579889317254</v>
+        <v>0.05196164946956076</v>
       </c>
       <c r="J282">
         <v>-0.0280579889317254</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.0280579889317254</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9382,13 +10225,16 @@
         <v>-0.007460251145167018</v>
       </c>
       <c r="I283">
-        <v>-0.01417527451932232</v>
+        <v>0.05171510618093641</v>
       </c>
       <c r="J283">
         <v>-0.01417527451932232</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.01417527451932232</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>31.36000061035156</v>
       </c>
       <c r="F284">
-        <v>30.62398147583008</v>
+        <v>30.62397956848145</v>
       </c>
       <c r="G284">
         <v>163800</v>
@@ -9414,13 +10260,16 @@
         <v>0.0248366084773668</v>
       </c>
       <c r="I284">
-        <v>0.03875455632980396</v>
+        <v>0.05126508903517748</v>
       </c>
       <c r="J284">
         <v>0.03875455632980396</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>0.03875455632980396</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>31.97999954223633</v>
       </c>
       <c r="F285">
-        <v>31.22942733764648</v>
+        <v>31.22942543029785</v>
       </c>
       <c r="G285">
         <v>176500</v>
@@ -9446,13 +10295,16 @@
         <v>0.01977037371868273</v>
       </c>
       <c r="I285">
-        <v>0.1511878600352179</v>
+        <v>0.051171932021249</v>
       </c>
       <c r="J285">
         <v>0.1511878600352179</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.1511878600352179</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>32.59999847412109</v>
       </c>
       <c r="F286">
-        <v>31.83487701416016</v>
+        <v>31.83487319946289</v>
       </c>
       <c r="G286">
         <v>138600</v>
@@ -9478,13 +10330,16 @@
         <v>0.01938708382612475</v>
       </c>
       <c r="I286">
-        <v>0.1466759804496431</v>
+        <v>0.05108850947368575</v>
       </c>
       <c r="J286">
         <v>0.1466759804496431</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.1466759804496431</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>33.86000061035156</v>
       </c>
       <c r="F287">
-        <v>33.20281982421875</v>
+        <v>33.20282363891602</v>
       </c>
       <c r="G287">
         <v>323600</v>
@@ -9510,13 +10365,16 @@
         <v>0.03865037408608152</v>
       </c>
       <c r="I287">
-        <v>0.2874525320380188</v>
+        <v>0.05117413668319607</v>
       </c>
       <c r="J287">
         <v>0.2874525320380188</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.2874525320380188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>32.68999862670898</v>
       </c>
       <c r="F288">
-        <v>32.05552673339844</v>
+        <v>32.0555305480957</v>
       </c>
       <c r="G288">
         <v>276700</v>
@@ -9542,13 +10400,16 @@
         <v>-0.03455410403285375</v>
       </c>
       <c r="I288">
-        <v>0.1539004135102224</v>
+        <v>0.05114959858849271</v>
       </c>
       <c r="J288">
         <v>0.1539004135102224</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.1539004135102224</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9574,13 +10435,16 @@
         <v>-0.0688283324311012</v>
       </c>
       <c r="I289">
-        <v>0.02699059247243363</v>
+        <v>0.05149210299493178</v>
       </c>
       <c r="J289">
         <v>0.02699059247243363</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>0.02699059247243363</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9606,13 +10470,16 @@
         <v>-0.1461892472032186</v>
       </c>
       <c r="I290">
-        <v>-0.1304784107784535</v>
+        <v>0.05297009343430426</v>
       </c>
       <c r="J290">
         <v>-0.1304784107784535</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.1304784107784535</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>28.45999908447266</v>
       </c>
       <c r="F291">
-        <v>27.90762901306152</v>
+        <v>27.90762710571289</v>
       </c>
       <c r="G291">
         <v>192800</v>
@@ -9638,13 +10505,16 @@
         <v>0.09503652693753861</v>
       </c>
       <c r="I291">
-        <v>-0.1033396569092022</v>
+        <v>0.05360235483702244</v>
       </c>
       <c r="J291">
         <v>-0.1033396569092022</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.1033396569092022</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>0.07940970841825701</v>
       </c>
       <c r="I292">
-        <v>0.03608767988501094</v>
+        <v>0.05273578050640962</v>
       </c>
       <c r="J292">
         <v>0.03608767988501094</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>0.03608767988501094</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>32.70999908447266</v>
       </c>
       <c r="F293">
-        <v>32.26938629150391</v>
+        <v>32.26939010620117</v>
       </c>
       <c r="G293">
         <v>170400</v>
@@ -9702,13 +10575,16 @@
         <v>0.06477863983066823</v>
       </c>
       <c r="I293">
-        <v>0.06063550332790268</v>
+        <v>0.05289789429262677</v>
       </c>
       <c r="J293">
         <v>0.06063550332790268</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>0.06063550332790268</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>0.03821461433771089</v>
       </c>
       <c r="I294">
-        <v>0.1015244621638762</v>
+        <v>0.05169841725279251</v>
       </c>
       <c r="J294">
         <v>0.1015244621638762</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>0.1015244621638762</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>35.34000015258789</v>
       </c>
       <c r="F295">
-        <v>34.86396026611328</v>
+        <v>34.86396408081055</v>
       </c>
       <c r="G295">
         <v>198400</v>
@@ -9766,13 +10645,16 @@
         <v>0.04063607495049104</v>
       </c>
       <c r="I295">
-        <v>0.1549019513734562</v>
+        <v>0.05112961336774721</v>
       </c>
       <c r="J295">
         <v>0.1549019513734562</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>0.1549019513734562</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.01443119183166885</v>
       </c>
       <c r="I296">
-        <v>0.1106505469760011</v>
+        <v>0.04958250795688274</v>
       </c>
       <c r="J296">
         <v>0.1106505469760011</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>0.1106505469760011</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9830,13 +10715,16 @@
         <v>-0.02497854438257108</v>
       </c>
       <c r="I297">
-        <v>0.06191368263221264</v>
+        <v>0.04962547909242992</v>
       </c>
       <c r="J297">
         <v>0.06191368263221264</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>0.06191368263221264</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>38.90999984741211</v>
       </c>
       <c r="F298">
-        <v>38.3858757019043</v>
+        <v>38.38587188720703</v>
       </c>
       <c r="G298">
         <v>285800</v>
@@ -9862,13 +10750,16 @@
         <v>0.1457597437098495</v>
       </c>
       <c r="I298">
-        <v>0.1935583333937911</v>
+        <v>0.05040571305041954</v>
       </c>
       <c r="J298">
         <v>0.1935583333937911</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.1935583333937911</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.06245181996158244</v>
       </c>
       <c r="I299">
-        <v>0.2209096103781394</v>
+        <v>0.04964743265584635</v>
       </c>
       <c r="J299">
         <v>0.2209096103781394</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.2209096103781394</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>0.02370584273389209</v>
       </c>
       <c r="I300">
-        <v>0.2945855452024142</v>
+        <v>0.04962842888375478</v>
       </c>
       <c r="J300">
         <v>0.2945855452024142</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.2945855452024142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.04017015064268459</v>
       </c>
       <c r="I301">
-        <v>0.4461235113485675</v>
+        <v>0.04965963141782717</v>
       </c>
       <c r="J301">
         <v>0.4461235113485675</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.4461235113485675</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.04838712053533323</v>
       </c>
       <c r="I302">
-        <v>0.7756830293305308</v>
+        <v>0.04977170183934241</v>
       </c>
       <c r="J302">
         <v>0.7756830293305308</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.7756830293305308</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.04160342590386823</v>
       </c>
       <c r="I303">
-        <v>0.6890372888680267</v>
+        <v>0.04977395704163836</v>
       </c>
       <c r="J303">
         <v>0.6890372888680267</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.6890372888680267</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.02974829029028991</v>
       </c>
       <c r="I304">
-        <v>0.6113281610159911</v>
+        <v>0.04950419797366978</v>
       </c>
       <c r="J304">
         <v>0.6113281610159911</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.6113281610159911</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.02121210579920296</v>
       </c>
       <c r="I305">
-        <v>0.481198475054025</v>
+        <v>0.0492808279168087</v>
       </c>
       <c r="J305">
         <v>0.481198475054025</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.481198475054025</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.03116611553674598</v>
       </c>
       <c r="I306">
-        <v>0.4711425333140127</v>
+        <v>0.04892192281885338</v>
       </c>
       <c r="J306">
         <v>0.4711425333140127</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.4711425333140127</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.05984791299558045</v>
       </c>
       <c r="I307">
-        <v>0.4983022222500475</v>
+        <v>0.04830860704183017</v>
       </c>
       <c r="J307">
         <v>0.4983022222500475</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.4983022222500475</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.0698772560836135</v>
       </c>
       <c r="I308">
-        <v>0.4140108357987031</v>
+        <v>0.04755915990579866</v>
       </c>
       <c r="J308">
         <v>0.4140108357987031</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.4140108357987031</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.05786798932225579</v>
       </c>
       <c r="I309">
-        <v>0.5341578291721005</v>
+        <v>0.04656955815033523</v>
       </c>
       <c r="J309">
         <v>0.5341578291721005</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.5341578291721005</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.05623801134334316</v>
       </c>
       <c r="I310">
-        <v>0.2636853858074635</v>
+        <v>0.04664172179514081</v>
       </c>
       <c r="J310">
         <v>0.2636853858074635</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.2636853858074635</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>50.15999984741211</v>
+        <v>50.34999847412109</v>
       </c>
       <c r="C311">
-        <v>50.36000061035156</v>
+        <v>50.40999984741211</v>
       </c>
       <c r="D311">
         <v>50.13999938964844</v>
       </c>
       <c r="E311">
-        <v>50.29999923706055</v>
+        <v>50.22000122070312</v>
       </c>
       <c r="F311">
-        <v>50.29999923706055</v>
+        <v>50.22000122070312</v>
       </c>
       <c r="G311">
-        <v>95233</v>
+        <v>201500</v>
       </c>
       <c r="H311">
-        <v>0.02298151535887016</v>
+        <v>0.02135454730240305</v>
       </c>
       <c r="I311">
-        <v>0.2167392126608825</v>
+        <v>0.04658792898101231</v>
       </c>
       <c r="J311">
-        <v>0.2167392126608825</v>
+        <v>0.2148040889051459</v>
+      </c>
+      <c r="K311">
+        <v>0.2148040889051459</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>50.54000091552734</v>
+      </c>
+      <c r="C312">
+        <v>50.54999923706055</v>
+      </c>
+      <c r="D312">
+        <v>50.18000030517578</v>
+      </c>
+      <c r="E312">
+        <v>50.47000122070312</v>
+      </c>
+      <c r="F312">
+        <v>50.47000122070312</v>
+      </c>
+      <c r="G312">
+        <v>136709</v>
+      </c>
+      <c r="H312">
+        <v>0.00497809625494261</v>
+      </c>
+      <c r="I312">
+        <v>0.0464693460946034</v>
+      </c>
+      <c r="J312">
+        <v>0.1925803777091157</v>
+      </c>
+      <c r="K312">
+        <v>0.1925803777091157</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWN.xlsx
+++ b/etf_dfs/EWN.xlsx
@@ -508,7 +508,7 @@
         <v>16.5625</v>
       </c>
       <c r="F2" t="n">
-        <v>8.056025505065918</v>
+        <v>8.056027412414551</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>17.75</v>
       </c>
       <c r="F4" t="n">
-        <v>8.63362979888916</v>
+        <v>8.633628845214844</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
@@ -595,7 +595,7 @@
         <v>17.75</v>
       </c>
       <c r="F5" t="n">
-        <v>8.63362979888916</v>
+        <v>8.633628845214844</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -626,7 +626,7 @@
         <v>17.375</v>
       </c>
       <c r="F6" t="n">
-        <v>8.451230049133301</v>
+        <v>8.451225280761719</v>
       </c>
       <c r="G6" t="n">
         <v>7800</v>
@@ -657,7 +657,7 @@
         <v>17.25</v>
       </c>
       <c r="F7" t="n">
-        <v>8.548651695251465</v>
+        <v>8.548652648925781</v>
       </c>
       <c r="G7" t="n">
         <v>200</v>
@@ -688,7 +688,7 @@
         <v>17.75</v>
       </c>
       <c r="F8" t="n">
-        <v>8.796436309814453</v>
+        <v>8.796440124511719</v>
       </c>
       <c r="G8" t="n">
         <v>7700</v>
@@ -750,7 +750,7 @@
         <v>19.25</v>
       </c>
       <c r="F10" t="n">
-        <v>9.539797782897949</v>
+        <v>9.539798736572266</v>
       </c>
       <c r="G10" t="n">
         <v>1100</v>
@@ -781,7 +781,7 @@
         <v>19.5625</v>
       </c>
       <c r="F11" t="n">
-        <v>9.701767921447754</v>
+        <v>9.70177173614502</v>
       </c>
       <c r="G11" t="n">
         <v>3700</v>
@@ -812,7 +812,7 @@
         <v>19.5</v>
       </c>
       <c r="F12" t="n">
-        <v>9.670770645141602</v>
+        <v>9.670773506164551</v>
       </c>
       <c r="G12" t="n">
         <v>10000</v>
@@ -843,7 +843,7 @@
         <v>20.375</v>
       </c>
       <c r="F13" t="n">
-        <v>10.10471725463867</v>
+        <v>10.1047191619873</v>
       </c>
       <c r="G13" t="n">
         <v>7900</v>
@@ -874,7 +874,7 @@
         <v>20.25</v>
       </c>
       <c r="F14" t="n">
-        <v>10.042724609375</v>
+        <v>10.04272651672363</v>
       </c>
       <c r="G14" t="n">
         <v>19600</v>
@@ -909,7 +909,7 @@
         <v>20.25</v>
       </c>
       <c r="F15" t="n">
-        <v>10.042724609375</v>
+        <v>10.04272651672363</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>21.8125</v>
       </c>
       <c r="F16" t="n">
-        <v>10.817626953125</v>
+        <v>10.81763076782227</v>
       </c>
       <c r="G16" t="n">
         <v>2900</v>
@@ -1014,7 +1014,7 @@
         <v>24.5</v>
       </c>
       <c r="F18" t="n">
-        <v>12.15046119689941</v>
+        <v>12.15045928955078</v>
       </c>
       <c r="G18" t="n">
         <v>15400</v>
@@ -1084,7 +1084,7 @@
         <v>23.4375</v>
       </c>
       <c r="F20" t="n">
-        <v>12.07542991638184</v>
+        <v>12.07543468475342</v>
       </c>
       <c r="G20" t="n">
         <v>200</v>
@@ -1119,7 +1119,7 @@
         <v>22.4375</v>
       </c>
       <c r="F21" t="n">
-        <v>11.56021118164062</v>
+        <v>11.56021404266357</v>
       </c>
       <c r="G21" t="n">
         <v>19200</v>
@@ -1154,7 +1154,7 @@
         <v>22.1875</v>
       </c>
       <c r="F22" t="n">
-        <v>11.43140697479248</v>
+        <v>11.43141174316406</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
@@ -1189,7 +1189,7 @@
         <v>22.5</v>
       </c>
       <c r="F23" t="n">
-        <v>11.66245269775391</v>
+        <v>11.66245555877686</v>
       </c>
       <c r="G23" t="n">
         <v>2200</v>
@@ -1259,7 +1259,7 @@
         <v>25.125</v>
       </c>
       <c r="F25" t="n">
-        <v>13.02307224273682</v>
+        <v>13.0230770111084</v>
       </c>
       <c r="G25" t="n">
         <v>5500</v>
@@ -1294,7 +1294,7 @@
         <v>26.3125</v>
       </c>
       <c r="F26" t="n">
-        <v>13.63859367370605</v>
+        <v>13.63859176635742</v>
       </c>
       <c r="G26" t="n">
         <v>5000</v>
@@ -1329,7 +1329,7 @@
         <v>27.1875</v>
       </c>
       <c r="F27" t="n">
-        <v>14.09213066101074</v>
+        <v>14.09212970733643</v>
       </c>
       <c r="G27" t="n">
         <v>3100</v>
@@ -1364,7 +1364,7 @@
         <v>28.5</v>
       </c>
       <c r="F28" t="n">
-        <v>14.77244472503662</v>
+        <v>14.77244186401367</v>
       </c>
       <c r="G28" t="n">
         <v>10900</v>
@@ -1399,7 +1399,7 @@
         <v>28.0625</v>
       </c>
       <c r="F29" t="n">
-        <v>14.5456714630127</v>
+        <v>14.54567432403564</v>
       </c>
       <c r="G29" t="n">
         <v>71000</v>
@@ -1434,7 +1434,7 @@
         <v>28.125</v>
       </c>
       <c r="F30" t="n">
-        <v>14.57806873321533</v>
+        <v>14.57807159423828</v>
       </c>
       <c r="G30" t="n">
         <v>1700</v>
@@ -1469,7 +1469,7 @@
         <v>22.9375</v>
       </c>
       <c r="F31" t="n">
-        <v>12.66458320617676</v>
+        <v>12.66458129882812</v>
       </c>
       <c r="G31" t="n">
         <v>18500</v>
@@ -1504,7 +1504,7 @@
         <v>22.3125</v>
       </c>
       <c r="F32" t="n">
-        <v>12.31949901580811</v>
+        <v>12.31949615478516</v>
       </c>
       <c r="G32" t="n">
         <v>1900</v>
@@ -1539,7 +1539,7 @@
         <v>23.75</v>
       </c>
       <c r="F33" t="n">
-        <v>13.11318874359131</v>
+        <v>13.11319541931152</v>
       </c>
       <c r="G33" t="n">
         <v>4500</v>
@@ -1609,7 +1609,7 @@
         <v>25.75</v>
       </c>
       <c r="F35" t="n">
-        <v>14.44635009765625</v>
+        <v>14.44634437561035</v>
       </c>
       <c r="G35" t="n">
         <v>6000</v>
@@ -1644,7 +1644,7 @@
         <v>24.1875</v>
       </c>
       <c r="F36" t="n">
-        <v>13.56974792480469</v>
+        <v>13.56975078582764</v>
       </c>
       <c r="G36" t="n">
         <v>1100</v>
@@ -1679,7 +1679,7 @@
         <v>23.9375</v>
       </c>
       <c r="F37" t="n">
-        <v>13.42949390411377</v>
+        <v>13.42949295043945</v>
       </c>
       <c r="G37" t="n">
         <v>1100</v>
@@ -1714,7 +1714,7 @@
         <v>23.75</v>
       </c>
       <c r="F38" t="n">
-        <v>13.32429790496826</v>
+        <v>13.32430362701416</v>
       </c>
       <c r="G38" t="n">
         <v>1400</v>
@@ -1749,7 +1749,7 @@
         <v>25.75</v>
       </c>
       <c r="F39" t="n">
-        <v>14.44635009765625</v>
+        <v>14.44634437561035</v>
       </c>
       <c r="G39" t="n">
         <v>1500</v>
@@ -1784,7 +1784,7 @@
         <v>24.25</v>
       </c>
       <c r="F40" t="n">
-        <v>13.60481357574463</v>
+        <v>13.60481262207031</v>
       </c>
       <c r="G40" t="n">
         <v>1800</v>
@@ -1819,7 +1819,7 @@
         <v>24.8125</v>
       </c>
       <c r="F41" t="n">
-        <v>13.92038726806641</v>
+        <v>13.92038536071777</v>
       </c>
       <c r="G41" t="n">
         <v>33100</v>
@@ -1854,7 +1854,7 @@
         <v>24.5625</v>
       </c>
       <c r="F42" t="n">
-        <v>13.78013229370117</v>
+        <v>13.78012943267822</v>
       </c>
       <c r="G42" t="n">
         <v>700</v>
@@ -1889,7 +1889,7 @@
         <v>23.375</v>
       </c>
       <c r="F43" t="n">
-        <v>14.09444618225098</v>
+        <v>14.09444522857666</v>
       </c>
       <c r="G43" t="n">
         <v>7900</v>
@@ -1924,7 +1924,7 @@
         <v>22.75</v>
       </c>
       <c r="F44" t="n">
-        <v>13.71759414672852</v>
+        <v>13.71759223937988</v>
       </c>
       <c r="G44" t="n">
         <v>3600</v>
@@ -1959,7 +1959,7 @@
         <v>23.4375</v>
       </c>
       <c r="F45" t="n">
-        <v>14.13213729858398</v>
+        <v>14.1321325302124</v>
       </c>
       <c r="G45" t="n">
         <v>10700</v>
@@ -1994,7 +1994,7 @@
         <v>22.875</v>
       </c>
       <c r="F46" t="n">
-        <v>13.79296207427979</v>
+        <v>13.79296112060547</v>
       </c>
       <c r="G46" t="n">
         <v>5800</v>
@@ -2029,7 +2029,7 @@
         <v>25.3125</v>
       </c>
       <c r="F47" t="n">
-        <v>15.26270294189453</v>
+        <v>15.26270198822021</v>
       </c>
       <c r="G47" t="n">
         <v>600</v>
@@ -2064,7 +2064,7 @@
         <v>21.9375</v>
       </c>
       <c r="F48" t="n">
-        <v>13.22767734527588</v>
+        <v>13.22767543792725</v>
       </c>
       <c r="G48" t="n">
         <v>19800</v>
@@ -2099,7 +2099,7 @@
         <v>23.6875</v>
       </c>
       <c r="F49" t="n">
-        <v>14.28287982940674</v>
+        <v>14.28287696838379</v>
       </c>
       <c r="G49" t="n">
         <v>10200</v>
@@ -2134,7 +2134,7 @@
         <v>24.125</v>
       </c>
       <c r="F50" t="n">
-        <v>14.54667282104492</v>
+        <v>14.5466775894165</v>
       </c>
       <c r="G50" t="n">
         <v>1600</v>
@@ -2169,7 +2169,7 @@
         <v>23.0625</v>
       </c>
       <c r="F51" t="n">
-        <v>13.9060173034668</v>
+        <v>13.90602016448975</v>
       </c>
       <c r="G51" t="n">
         <v>4500</v>
@@ -2204,7 +2204,7 @@
         <v>23.875</v>
       </c>
       <c r="F52" t="n">
-        <v>14.39593505859375</v>
+        <v>14.39593601226807</v>
       </c>
       <c r="G52" t="n">
         <v>20400</v>
@@ -2239,7 +2239,7 @@
         <v>24.9375</v>
       </c>
       <c r="F53" t="n">
-        <v>15.03658962249756</v>
+        <v>15.03659152984619</v>
       </c>
       <c r="G53" t="n">
         <v>3000</v>
@@ -2274,7 +2274,7 @@
         <v>24.0625</v>
       </c>
       <c r="F54" t="n">
-        <v>14.50898933410645</v>
+        <v>14.50899124145508</v>
       </c>
       <c r="G54" t="n">
         <v>800</v>
@@ -2309,7 +2309,7 @@
         <v>23.625</v>
       </c>
       <c r="F55" t="n">
-        <v>14.37816143035889</v>
+        <v>14.37816333770752</v>
       </c>
       <c r="G55" t="n">
         <v>7500</v>
@@ -2344,7 +2344,7 @@
         <v>22.6875</v>
       </c>
       <c r="F56" t="n">
-        <v>13.80759716033936</v>
+        <v>13.80760192871094</v>
       </c>
       <c r="G56" t="n">
         <v>1800</v>
@@ -2379,7 +2379,7 @@
         <v>22.75</v>
       </c>
       <c r="F57" t="n">
-        <v>13.84563541412354</v>
+        <v>13.84563732147217</v>
       </c>
       <c r="G57" t="n">
         <v>26800</v>
@@ -2414,7 +2414,7 @@
         <v>21.875</v>
       </c>
       <c r="F58" t="n">
-        <v>13.31311225891113</v>
+        <v>13.31311321258545</v>
       </c>
       <c r="G58" t="n">
         <v>5600</v>
@@ -2449,7 +2449,7 @@
         <v>22.6875</v>
       </c>
       <c r="F59" t="n">
-        <v>13.95603084564209</v>
+        <v>13.95602893829346</v>
       </c>
       <c r="G59" t="n">
         <v>18800</v>
@@ -2484,7 +2484,7 @@
         <v>22.81999969482422</v>
       </c>
       <c r="F60" t="n">
-        <v>14.03754138946533</v>
+        <v>14.03754043579102</v>
       </c>
       <c r="G60" t="n">
         <v>17700</v>
@@ -2554,7 +2554,7 @@
         <v>19.35000038146973</v>
       </c>
       <c r="F62" t="n">
-        <v>11.90299987792969</v>
+        <v>11.90299797058105</v>
       </c>
       <c r="G62" t="n">
         <v>1300</v>
@@ -2589,7 +2589,7 @@
         <v>20.70999908447266</v>
       </c>
       <c r="F63" t="n">
-        <v>12.73958969116211</v>
+        <v>12.73959159851074</v>
       </c>
       <c r="G63" t="n">
         <v>1900</v>
@@ -2659,7 +2659,7 @@
         <v>19.25</v>
       </c>
       <c r="F65" t="n">
-        <v>11.8414831161499</v>
+        <v>11.84148502349854</v>
       </c>
       <c r="G65" t="n">
         <v>61000</v>
@@ -2694,7 +2694,7 @@
         <v>19.35000038146973</v>
       </c>
       <c r="F66" t="n">
-        <v>11.90299987792969</v>
+        <v>11.90299797058105</v>
       </c>
       <c r="G66" t="n">
         <v>20800</v>
@@ -2729,7 +2729,7 @@
         <v>18.51000022888184</v>
       </c>
       <c r="F67" t="n">
-        <v>11.55668830871582</v>
+        <v>11.55668926239014</v>
       </c>
       <c r="G67" t="n">
         <v>2500</v>
@@ -2764,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="F68" t="n">
-        <v>9.98957347869873</v>
+        <v>9.989574432373047</v>
       </c>
       <c r="G68" t="n">
         <v>6100</v>
@@ -2799,7 +2799,7 @@
         <v>16.05999946594238</v>
       </c>
       <c r="F69" t="n">
-        <v>10.02703666687012</v>
+        <v>10.02703380584717</v>
       </c>
       <c r="G69" t="n">
         <v>1200</v>
@@ -2904,7 +2904,7 @@
         <v>16.5</v>
       </c>
       <c r="F72" t="n">
-        <v>10.32684421539307</v>
+        <v>10.32684230804443</v>
       </c>
       <c r="G72" t="n">
         <v>1600</v>
@@ -2939,7 +2939,7 @@
         <v>16.60000038146973</v>
       </c>
       <c r="F73" t="n">
-        <v>10.38943195343018</v>
+        <v>10.38943004608154</v>
       </c>
       <c r="G73" t="n">
         <v>11000</v>
@@ -2974,7 +2974,7 @@
         <v>17.81999969482422</v>
       </c>
       <c r="F74" t="n">
-        <v>11.15299034118652</v>
+        <v>11.15298843383789</v>
       </c>
       <c r="G74" t="n">
         <v>100</v>
@@ -3009,7 +3009,7 @@
         <v>18.10000038146973</v>
       </c>
       <c r="F75" t="n">
-        <v>11.32823371887207</v>
+        <v>11.3282356262207</v>
       </c>
       <c r="G75" t="n">
         <v>15900</v>
@@ -3114,7 +3114,7 @@
         <v>14.47999954223633</v>
       </c>
       <c r="F78" t="n">
-        <v>9.062587738037109</v>
+        <v>9.062586784362793</v>
       </c>
       <c r="G78" t="n">
         <v>19200</v>
@@ -3149,7 +3149,7 @@
         <v>14.75</v>
       </c>
       <c r="F79" t="n">
-        <v>9.231572151184082</v>
+        <v>9.231573104858398</v>
       </c>
       <c r="G79" t="n">
         <v>42300</v>
@@ -3184,7 +3184,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F80" t="n">
-        <v>7.635607242584229</v>
+        <v>7.635605812072754</v>
       </c>
       <c r="G80" t="n">
         <v>6100</v>
@@ -3219,7 +3219,7 @@
         <v>13.46000003814697</v>
       </c>
       <c r="F81" t="n">
-        <v>8.424201011657715</v>
+        <v>8.424202919006348</v>
       </c>
       <c r="G81" t="n">
         <v>2100</v>
@@ -3254,7 +3254,7 @@
         <v>14.15999984741211</v>
       </c>
       <c r="F82" t="n">
-        <v>8.862308502197266</v>
+        <v>8.862307548522949</v>
       </c>
       <c r="G82" t="n">
         <v>88500</v>
@@ -3324,7 +3324,7 @@
         <v>12.10999965667725</v>
       </c>
       <c r="F84" t="n">
-        <v>7.720108032226562</v>
+        <v>7.72011137008667</v>
       </c>
       <c r="G84" t="n">
         <v>400</v>
@@ -3359,7 +3359,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="F85" t="n">
-        <v>7.133609771728516</v>
+        <v>7.133611679077148</v>
       </c>
       <c r="G85" t="n">
         <v>91900</v>
@@ -3394,7 +3394,7 @@
         <v>10.81999969482422</v>
       </c>
       <c r="F86" t="n">
-        <v>6.8977370262146</v>
+        <v>6.897736549377441</v>
       </c>
       <c r="G86" t="n">
         <v>3600</v>
@@ -3429,7 +3429,7 @@
         <v>12.47999954223633</v>
       </c>
       <c r="F87" t="n">
-        <v>7.955984592437744</v>
+        <v>7.955984115600586</v>
       </c>
       <c r="G87" t="n">
         <v>2600</v>
@@ -3534,7 +3534,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="F90" t="n">
-        <v>8.886730194091797</v>
+        <v>8.886731147766113</v>
       </c>
       <c r="G90" t="n">
         <v>7600</v>
@@ -3569,7 +3569,7 @@
         <v>14.35000038146973</v>
       </c>
       <c r="F91" t="n">
-        <v>9.148106575012207</v>
+        <v>9.148105621337891</v>
       </c>
       <c r="G91" t="n">
         <v>19300</v>
@@ -3604,7 +3604,7 @@
         <v>14.01000022888184</v>
       </c>
       <c r="F92" t="n">
-        <v>8.931356430053711</v>
+        <v>8.931358337402344</v>
       </c>
       <c r="G92" t="n">
         <v>26500</v>
@@ -3674,7 +3674,7 @@
         <v>15.53999996185303</v>
       </c>
       <c r="F94" t="n">
-        <v>9.906730651855469</v>
+        <v>9.906731605529785</v>
       </c>
       <c r="G94" t="n">
         <v>2000</v>
@@ -3779,7 +3779,7 @@
         <v>16.86000061035156</v>
       </c>
       <c r="F97" t="n">
-        <v>11.17997646331787</v>
+        <v>11.17997550964355</v>
       </c>
       <c r="G97" t="n">
         <v>9400</v>
@@ -3814,7 +3814,7 @@
         <v>15.85999965667725</v>
       </c>
       <c r="F98" t="n">
-        <v>10.51687240600586</v>
+        <v>10.51686859130859</v>
       </c>
       <c r="G98" t="n">
         <v>7100</v>
@@ -3849,7 +3849,7 @@
         <v>15.82999992370605</v>
       </c>
       <c r="F99" t="n">
-        <v>10.49697494506836</v>
+        <v>10.49697875976562</v>
       </c>
       <c r="G99" t="n">
         <v>4000</v>
@@ -3884,7 +3884,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F100" t="n">
-        <v>10.75558853149414</v>
+        <v>10.75558948516846</v>
       </c>
       <c r="G100" t="n">
         <v>3000</v>
@@ -3919,7 +3919,7 @@
         <v>16.57999992370605</v>
       </c>
       <c r="F101" t="n">
-        <v>10.99430656433105</v>
+        <v>10.99430751800537</v>
       </c>
       <c r="G101" t="n">
         <v>800</v>
@@ -4024,7 +4024,7 @@
         <v>16</v>
       </c>
       <c r="F104" t="n">
-        <v>10.60970592498779</v>
+        <v>10.60970497131348</v>
       </c>
       <c r="G104" t="n">
         <v>900</v>
@@ -4094,7 +4094,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="F106" t="n">
-        <v>11.84971618652344</v>
+        <v>11.8497142791748</v>
       </c>
       <c r="G106" t="n">
         <v>4900</v>
@@ -4129,7 +4129,7 @@
         <v>18.40999984741211</v>
       </c>
       <c r="F107" t="n">
-        <v>12.38374042510986</v>
+        <v>12.38373851776123</v>
       </c>
       <c r="G107" t="n">
         <v>13300</v>
@@ -4164,7 +4164,7 @@
         <v>18.39999961853027</v>
       </c>
       <c r="F108" t="n">
-        <v>12.3770112991333</v>
+        <v>12.37701225280762</v>
       </c>
       <c r="G108" t="n">
         <v>18200</v>
@@ -4234,7 +4234,7 @@
         <v>18.82999992370605</v>
       </c>
       <c r="F110" t="n">
-        <v>12.66625499725342</v>
+        <v>12.66625690460205</v>
       </c>
       <c r="G110" t="n">
         <v>19000</v>
@@ -4269,7 +4269,7 @@
         <v>18.01000022888184</v>
       </c>
       <c r="F111" t="n">
-        <v>12.11467170715332</v>
+        <v>12.11467266082764</v>
       </c>
       <c r="G111" t="n">
         <v>15800</v>
@@ -4304,7 +4304,7 @@
         <v>18.01000022888184</v>
       </c>
       <c r="F112" t="n">
-        <v>12.11467170715332</v>
+        <v>12.11467266082764</v>
       </c>
       <c r="G112" t="n">
         <v>12800</v>
@@ -4409,7 +4409,7 @@
         <v>19.28000068664551</v>
       </c>
       <c r="F115" t="n">
-        <v>12.96895694732666</v>
+        <v>12.96895885467529</v>
       </c>
       <c r="G115" t="n">
         <v>7500</v>
@@ -4444,7 +4444,7 @@
         <v>19.3700008392334</v>
       </c>
       <c r="F116" t="n">
-        <v>13.02950000762939</v>
+        <v>13.02949714660645</v>
       </c>
       <c r="G116" t="n">
         <v>10300</v>
@@ -4479,7 +4479,7 @@
         <v>18.72999954223633</v>
       </c>
       <c r="F117" t="n">
-        <v>12.59899044036865</v>
+        <v>12.59898948669434</v>
       </c>
       <c r="G117" t="n">
         <v>14300</v>
@@ -4514,7 +4514,7 @@
         <v>19.65999984741211</v>
       </c>
       <c r="F118" t="n">
-        <v>13.22457218170166</v>
+        <v>13.22457027435303</v>
       </c>
       <c r="G118" t="n">
         <v>8000</v>
@@ -4549,7 +4549,7 @@
         <v>20.31999969482422</v>
       </c>
       <c r="F119" t="n">
-        <v>13.99108791351318</v>
+        <v>13.9910888671875</v>
       </c>
       <c r="G119" t="n">
         <v>47500</v>
@@ -4619,7 +4619,7 @@
         <v>21.70000076293945</v>
       </c>
       <c r="F121" t="n">
-        <v>14.9412727355957</v>
+        <v>14.94127368927002</v>
       </c>
       <c r="G121" t="n">
         <v>68800</v>
@@ -4654,7 +4654,7 @@
         <v>22.6299991607666</v>
       </c>
       <c r="F122" t="n">
-        <v>15.58160877227783</v>
+        <v>15.58161544799805</v>
       </c>
       <c r="G122" t="n">
         <v>21600</v>
@@ -4689,7 +4689,7 @@
         <v>23.54000091552734</v>
       </c>
       <c r="F123" t="n">
-        <v>16.20818328857422</v>
+        <v>16.20817947387695</v>
       </c>
       <c r="G123" t="n">
         <v>10300</v>
@@ -4724,7 +4724,7 @@
         <v>22.5</v>
       </c>
       <c r="F124" t="n">
-        <v>15.49209976196289</v>
+        <v>15.49210453033447</v>
       </c>
       <c r="G124" t="n">
         <v>62700</v>
@@ -4759,7 +4759,7 @@
         <v>22.54999923706055</v>
       </c>
       <c r="F125" t="n">
-        <v>15.52652740478516</v>
+        <v>15.52652835845947</v>
       </c>
       <c r="G125" t="n">
         <v>23000</v>
@@ -4794,7 +4794,7 @@
         <v>23.19000053405762</v>
       </c>
       <c r="F126" t="n">
-        <v>15.96719264984131</v>
+        <v>15.96719646453857</v>
       </c>
       <c r="G126" t="n">
         <v>11400</v>
@@ -4829,7 +4829,7 @@
         <v>24.28000068664551</v>
       </c>
       <c r="F127" t="n">
-        <v>16.71769905090332</v>
+        <v>16.71770095825195</v>
       </c>
       <c r="G127" t="n">
         <v>101400</v>
@@ -4899,7 +4899,7 @@
         <v>24.93000030517578</v>
       </c>
       <c r="F129" t="n">
-        <v>17.16524887084961</v>
+        <v>17.16525268554688</v>
       </c>
       <c r="G129" t="n">
         <v>52100</v>
@@ -4934,7 +4934,7 @@
         <v>25.77000045776367</v>
       </c>
       <c r="F130" t="n">
-        <v>17.74362564086914</v>
+        <v>17.74362373352051</v>
       </c>
       <c r="G130" t="n">
         <v>66800</v>
@@ -4969,7 +4969,7 @@
         <v>26.30999946594238</v>
       </c>
       <c r="F131" t="n">
-        <v>18.43190383911133</v>
+        <v>18.43190574645996</v>
       </c>
       <c r="G131" t="n">
         <v>42200</v>
@@ -5004,7 +5004,7 @@
         <v>26.55999946594238</v>
       </c>
       <c r="F132" t="n">
-        <v>18.60704612731934</v>
+        <v>18.60705184936523</v>
       </c>
       <c r="G132" t="n">
         <v>36200</v>
@@ -5039,7 +5039,7 @@
         <v>26.35000038146973</v>
       </c>
       <c r="F133" t="n">
-        <v>18.45993232727051</v>
+        <v>18.45992660522461</v>
       </c>
       <c r="G133" t="n">
         <v>134700</v>
@@ -5074,7 +5074,7 @@
         <v>28.38999938964844</v>
       </c>
       <c r="F134" t="n">
-        <v>19.88907623291016</v>
+        <v>19.88908386230469</v>
       </c>
       <c r="G134" t="n">
         <v>243800</v>
@@ -5109,7 +5109,7 @@
         <v>30.69000053405762</v>
       </c>
       <c r="F135" t="n">
-        <v>21.50038528442383</v>
+        <v>21.50039100646973</v>
       </c>
       <c r="G135" t="n">
         <v>101600</v>
@@ -5144,7 +5144,7 @@
         <v>30.61000061035156</v>
       </c>
       <c r="F136" t="n">
-        <v>21.44433975219727</v>
+        <v>21.4443416595459</v>
       </c>
       <c r="G136" t="n">
         <v>134300</v>
@@ -5179,7 +5179,7 @@
         <v>30.35000038146973</v>
       </c>
       <c r="F137" t="n">
-        <v>21.2621955871582</v>
+        <v>21.26219367980957</v>
       </c>
       <c r="G137" t="n">
         <v>43500</v>
@@ -5214,7 +5214,7 @@
         <v>30.04999923706055</v>
       </c>
       <c r="F138" t="n">
-        <v>21.05202293395996</v>
+        <v>21.05202102661133</v>
       </c>
       <c r="G138" t="n">
         <v>89400</v>
@@ -5249,7 +5249,7 @@
         <v>29.76000022888184</v>
       </c>
       <c r="F139" t="n">
-        <v>20.8488597869873</v>
+        <v>20.84885406494141</v>
       </c>
       <c r="G139" t="n">
         <v>33800</v>
@@ -5284,7 +5284,7 @@
         <v>32.04000091552734</v>
       </c>
       <c r="F140" t="n">
-        <v>22.44614791870117</v>
+        <v>22.44615173339844</v>
       </c>
       <c r="G140" t="n">
         <v>66500</v>
@@ -5319,7 +5319,7 @@
         <v>32.7400016784668</v>
       </c>
       <c r="F141" t="n">
-        <v>22.93655395507812</v>
+        <v>22.93655204772949</v>
       </c>
       <c r="G141" t="n">
         <v>360800</v>
@@ -5354,7 +5354,7 @@
         <v>30.95999908447266</v>
       </c>
       <c r="F142" t="n">
-        <v>21.68953895568848</v>
+        <v>21.68953704833984</v>
       </c>
       <c r="G142" t="n">
         <v>122400</v>
@@ -5389,7 +5389,7 @@
         <v>29.95999908447266</v>
       </c>
       <c r="F143" t="n">
-        <v>21.73111343383789</v>
+        <v>21.73111915588379</v>
       </c>
       <c r="G143" t="n">
         <v>55700</v>
@@ -5424,7 +5424,7 @@
         <v>26.98999977111816</v>
       </c>
       <c r="F144" t="n">
-        <v>19.57685852050781</v>
+        <v>19.57686424255371</v>
       </c>
       <c r="G144" t="n">
         <v>43300</v>
@@ -5494,7 +5494,7 @@
         <v>28.36000061035156</v>
       </c>
       <c r="F146" t="n">
-        <v>20.5705738067627</v>
+        <v>20.57057571411133</v>
       </c>
       <c r="G146" t="n">
         <v>61400</v>
@@ -5529,7 +5529,7 @@
         <v>29.38999938964844</v>
       </c>
       <c r="F147" t="n">
-        <v>21.31767845153809</v>
+        <v>21.31767272949219</v>
       </c>
       <c r="G147" t="n">
         <v>46300</v>
@@ -5564,7 +5564,7 @@
         <v>29.77000045776367</v>
       </c>
       <c r="F148" t="n">
-        <v>21.59330558776855</v>
+        <v>21.59330177307129</v>
       </c>
       <c r="G148" t="n">
         <v>27500</v>
@@ -5599,7 +5599,7 @@
         <v>24.88999938964844</v>
       </c>
       <c r="F149" t="n">
-        <v>18.59028434753418</v>
+        <v>18.59028053283691</v>
       </c>
       <c r="G149" t="n">
         <v>297200</v>
@@ -5704,7 +5704,7 @@
         <v>20.11000061035156</v>
       </c>
       <c r="F152" t="n">
-        <v>15.02011203765869</v>
+        <v>15.02010726928711</v>
       </c>
       <c r="G152" t="n">
         <v>70100</v>
@@ -5809,7 +5809,7 @@
         <v>14.92000007629395</v>
       </c>
       <c r="F155" t="n">
-        <v>11.41452598571777</v>
+        <v>11.41452503204346</v>
       </c>
       <c r="G155" t="n">
         <v>132000</v>
@@ -5879,7 +5879,7 @@
         <v>11.76000022888184</v>
       </c>
       <c r="F157" t="n">
-        <v>8.996971130371094</v>
+        <v>8.99697208404541</v>
       </c>
       <c r="G157" t="n">
         <v>88400</v>
@@ -5914,7 +5914,7 @@
         <v>12.46000003814697</v>
       </c>
       <c r="F158" t="n">
-        <v>9.532505989074707</v>
+        <v>9.532505035400391</v>
       </c>
       <c r="G158" t="n">
         <v>64100</v>
@@ -5949,7 +5949,7 @@
         <v>13.85000038146973</v>
       </c>
       <c r="F159" t="n">
-        <v>10.59592342376709</v>
+        <v>10.59592437744141</v>
       </c>
       <c r="G159" t="n">
         <v>82600</v>
@@ -5984,7 +5984,7 @@
         <v>15.89999961853027</v>
       </c>
       <c r="F160" t="n">
-        <v>12.16427230834961</v>
+        <v>12.16427421569824</v>
       </c>
       <c r="G160" t="n">
         <v>116900</v>
@@ -6019,7 +6019,7 @@
         <v>15.28999996185303</v>
       </c>
       <c r="F161" t="n">
-        <v>11.94548892974854</v>
+        <v>11.94548988342285</v>
       </c>
       <c r="G161" t="n">
         <v>56800</v>
@@ -6089,7 +6089,7 @@
         <v>18.52000045776367</v>
       </c>
       <c r="F163" t="n">
-        <v>14.46896266937256</v>
+        <v>14.46896553039551</v>
       </c>
       <c r="G163" t="n">
         <v>60300</v>
@@ -6159,7 +6159,7 @@
         <v>19.40999984741211</v>
       </c>
       <c r="F165" t="n">
-        <v>15.1642894744873</v>
+        <v>15.16428756713867</v>
       </c>
       <c r="G165" t="n">
         <v>75800</v>
@@ -6194,7 +6194,7 @@
         <v>20.19000053405762</v>
       </c>
       <c r="F166" t="n">
-        <v>15.77366638183594</v>
+        <v>15.77366924285889</v>
       </c>
       <c r="G166" t="n">
         <v>23500</v>
@@ -6229,7 +6229,7 @@
         <v>20.45999908447266</v>
       </c>
       <c r="F167" t="n">
-        <v>16.07500457763672</v>
+        <v>16.07500648498535</v>
       </c>
       <c r="G167" t="n">
         <v>30200</v>
@@ -6264,7 +6264,7 @@
         <v>19.68000030517578</v>
       </c>
       <c r="F168" t="n">
-        <v>15.46217727661133</v>
+        <v>15.46217823028564</v>
       </c>
       <c r="G168" t="n">
         <v>223500</v>
@@ -6299,7 +6299,7 @@
         <v>19.06999969482422</v>
       </c>
       <c r="F169" t="n">
-        <v>14.98291397094727</v>
+        <v>14.98291015625</v>
       </c>
       <c r="G169" t="n">
         <v>25700</v>
@@ -6334,7 +6334,7 @@
         <v>20.39999961853027</v>
       </c>
       <c r="F170" t="n">
-        <v>16.02786827087402</v>
+        <v>16.02786445617676</v>
       </c>
       <c r="G170" t="n">
         <v>49900</v>
@@ -6369,7 +6369,7 @@
         <v>20.1299991607666</v>
       </c>
       <c r="F171" t="n">
-        <v>15.81573104858398</v>
+        <v>15.81573390960693</v>
       </c>
       <c r="G171" t="n">
         <v>80900</v>
@@ -6404,7 +6404,7 @@
         <v>17.64999961853027</v>
       </c>
       <c r="F172" t="n">
-        <v>13.86724281311035</v>
+        <v>13.86724758148193</v>
       </c>
       <c r="G172" t="n">
         <v>99700</v>
@@ -6439,7 +6439,7 @@
         <v>17.11000061035156</v>
       </c>
       <c r="F173" t="n">
-        <v>13.63886833190918</v>
+        <v>13.63887119293213</v>
       </c>
       <c r="G173" t="n">
         <v>48800</v>
@@ -6474,7 +6474,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="F174" t="n">
-        <v>15.44834899902344</v>
+        <v>15.44835376739502</v>
       </c>
       <c r="G174" t="n">
         <v>74800</v>
@@ -6509,7 +6509,7 @@
         <v>17.76000022888184</v>
       </c>
       <c r="F175" t="n">
-        <v>14.15700340270996</v>
+        <v>14.15700244903564</v>
       </c>
       <c r="G175" t="n">
         <v>45700</v>
@@ -6544,7 +6544,7 @@
         <v>20.31999969482422</v>
       </c>
       <c r="F176" t="n">
-        <v>16.19765090942383</v>
+        <v>16.1976490020752</v>
       </c>
       <c r="G176" t="n">
         <v>52700</v>
@@ -6579,7 +6579,7 @@
         <v>20.85000038146973</v>
       </c>
       <c r="F177" t="n">
-        <v>16.62013244628906</v>
+        <v>16.62013053894043</v>
       </c>
       <c r="G177" t="n">
         <v>92900</v>
@@ -6614,7 +6614,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="F178" t="n">
-        <v>15.04978275299072</v>
+        <v>15.0497875213623</v>
       </c>
       <c r="G178" t="n">
         <v>212700</v>
@@ -6649,7 +6649,7 @@
         <v>21.09000015258789</v>
       </c>
       <c r="F179" t="n">
-        <v>16.85686683654785</v>
+        <v>16.85686492919922</v>
       </c>
       <c r="G179" t="n">
         <v>95000</v>
@@ -6684,7 +6684,7 @@
         <v>21.70999908447266</v>
       </c>
       <c r="F180" t="n">
-        <v>17.3524169921875</v>
+        <v>17.3524227142334</v>
       </c>
       <c r="G180" t="n">
         <v>146900</v>
@@ -6754,7 +6754,7 @@
         <v>23.04999923706055</v>
       </c>
       <c r="F182" t="n">
-        <v>18.4234619140625</v>
+        <v>18.42346000671387</v>
       </c>
       <c r="G182" t="n">
         <v>167700</v>
@@ -6789,7 +6789,7 @@
         <v>24</v>
       </c>
       <c r="F183" t="n">
-        <v>19.18277740478516</v>
+        <v>19.18278121948242</v>
       </c>
       <c r="G183" t="n">
         <v>55000</v>
@@ -6824,7 +6824,7 @@
         <v>22.71999931335449</v>
       </c>
       <c r="F184" t="n">
-        <v>18.15969657897949</v>
+        <v>18.15970230102539</v>
       </c>
       <c r="G184" t="n">
         <v>161900</v>
@@ -6859,7 +6859,7 @@
         <v>21.55999946594238</v>
       </c>
       <c r="F185" t="n">
-        <v>17.56804656982422</v>
+        <v>17.56804275512695</v>
       </c>
       <c r="G185" t="n">
         <v>213400</v>
@@ -6929,7 +6929,7 @@
         <v>18.45999908447266</v>
       </c>
       <c r="F187" t="n">
-        <v>15.04202365875244</v>
+        <v>15.04202747344971</v>
       </c>
       <c r="G187" t="n">
         <v>45700</v>
@@ -6964,7 +6964,7 @@
         <v>16.38999938964844</v>
       </c>
       <c r="F188" t="n">
-        <v>13.355299949646</v>
+        <v>13.35529899597168</v>
       </c>
       <c r="G188" t="n">
         <v>71400</v>
@@ -7034,7 +7034,7 @@
         <v>17.53000068664551</v>
       </c>
       <c r="F190" t="n">
-        <v>14.28422451019287</v>
+        <v>14.28422164916992</v>
       </c>
       <c r="G190" t="n">
         <v>78900</v>
@@ -7069,7 +7069,7 @@
         <v>17.22999954223633</v>
       </c>
       <c r="F191" t="n">
-        <v>14.15730953216553</v>
+        <v>14.15731048583984</v>
       </c>
       <c r="G191" t="n">
         <v>110700</v>
@@ -7139,7 +7139,7 @@
         <v>18.75</v>
       </c>
       <c r="F193" t="n">
-        <v>15.40624332427979</v>
+        <v>15.40624237060547</v>
       </c>
       <c r="G193" t="n">
         <v>67200</v>
@@ -7174,7 +7174,7 @@
         <v>18.98999977111816</v>
       </c>
       <c r="F194" t="n">
-        <v>15.60344791412354</v>
+        <v>15.60344505310059</v>
       </c>
       <c r="G194" t="n">
         <v>51700</v>
@@ -7209,7 +7209,7 @@
         <v>18.19000053405762</v>
       </c>
       <c r="F195" t="n">
-        <v>14.94611167907715</v>
+        <v>14.94611072540283</v>
       </c>
       <c r="G195" t="n">
         <v>109000</v>
@@ -7244,7 +7244,7 @@
         <v>16.20000076293945</v>
       </c>
       <c r="F196" t="n">
-        <v>13.31099605560303</v>
+        <v>13.31099700927734</v>
       </c>
       <c r="G196" t="n">
         <v>152700</v>
@@ -7279,7 +7279,7 @@
         <v>17.07999992370605</v>
       </c>
       <c r="F197" t="n">
-        <v>14.36477756500244</v>
+        <v>14.36478042602539</v>
       </c>
       <c r="G197" t="n">
         <v>120000</v>
@@ -7314,7 +7314,7 @@
         <v>17.48999977111816</v>
       </c>
       <c r="F198" t="n">
-        <v>14.70960140228271</v>
+        <v>14.70960330963135</v>
       </c>
       <c r="G198" t="n">
         <v>141300</v>
@@ -7349,7 +7349,7 @@
         <v>18.20000076293945</v>
       </c>
       <c r="F199" t="n">
-        <v>15.30673122406006</v>
+        <v>15.30673313140869</v>
       </c>
       <c r="G199" t="n">
         <v>127900</v>
@@ -7594,7 +7594,7 @@
         <v>20.59000015258789</v>
       </c>
       <c r="F206" t="n">
-        <v>17.34764862060547</v>
+        <v>17.3476505279541</v>
       </c>
       <c r="G206" t="n">
         <v>82800</v>
@@ -7664,7 +7664,7 @@
         <v>21.85000038146973</v>
       </c>
       <c r="F208" t="n">
-        <v>18.40923881530762</v>
+        <v>18.40923309326172</v>
       </c>
       <c r="G208" t="n">
         <v>210600</v>
@@ -7699,7 +7699,7 @@
         <v>20.79999923706055</v>
       </c>
       <c r="F209" t="n">
-        <v>17.78473854064941</v>
+        <v>17.78474044799805</v>
       </c>
       <c r="G209" t="n">
         <v>173300</v>
@@ -7734,7 +7734,7 @@
         <v>22.88999938964844</v>
       </c>
       <c r="F210" t="n">
-        <v>19.57175827026367</v>
+        <v>19.5717601776123</v>
       </c>
       <c r="G210" t="n">
         <v>121300</v>
@@ -7874,7 +7874,7 @@
         <v>25.27000045776367</v>
       </c>
       <c r="F214" t="n">
-        <v>21.60674667358398</v>
+        <v>21.60674285888672</v>
       </c>
       <c r="G214" t="n">
         <v>280400</v>
@@ -7909,7 +7909,7 @@
         <v>25.93000030517578</v>
       </c>
       <c r="F215" t="n">
-        <v>22.24674415588379</v>
+        <v>22.24674606323242</v>
       </c>
       <c r="G215" t="n">
         <v>246300</v>
@@ -7944,7 +7944,7 @@
         <v>24.31999969482422</v>
       </c>
       <c r="F216" t="n">
-        <v>20.86544036865234</v>
+        <v>20.86543846130371</v>
       </c>
       <c r="G216" t="n">
         <v>131900</v>
@@ -7979,7 +7979,7 @@
         <v>25.70000076293945</v>
       </c>
       <c r="F217" t="n">
-        <v>22.04941940307617</v>
+        <v>22.04941749572754</v>
       </c>
       <c r="G217" t="n">
         <v>92200</v>
@@ -8014,7 +8014,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="F218" t="n">
-        <v>22.40975952148438</v>
+        <v>22.40975570678711</v>
       </c>
       <c r="G218" t="n">
         <v>232900</v>
@@ -8049,7 +8049,7 @@
         <v>25.70000076293945</v>
       </c>
       <c r="F219" t="n">
-        <v>22.04941940307617</v>
+        <v>22.04941749572754</v>
       </c>
       <c r="G219" t="n">
         <v>92800</v>
@@ -8084,7 +8084,7 @@
         <v>25.92000007629395</v>
       </c>
       <c r="F220" t="n">
-        <v>22.23816299438477</v>
+        <v>22.2381649017334</v>
       </c>
       <c r="G220" t="n">
         <v>67000</v>
@@ -8119,7 +8119,7 @@
         <v>25.60000038146973</v>
       </c>
       <c r="F221" t="n">
-        <v>22.36788177490234</v>
+        <v>22.36787796020508</v>
       </c>
       <c r="G221" t="n">
         <v>389100</v>
@@ -8154,7 +8154,7 @@
         <v>24.11000061035156</v>
       </c>
       <c r="F222" t="n">
-        <v>21.06599807739258</v>
+        <v>21.06600189208984</v>
       </c>
       <c r="G222" t="n">
         <v>238900</v>
@@ -8189,7 +8189,7 @@
         <v>24.60000038146973</v>
       </c>
       <c r="F223" t="n">
-        <v>21.4941349029541</v>
+        <v>21.49413871765137</v>
       </c>
       <c r="G223" t="n">
         <v>73400</v>
@@ -8224,7 +8224,7 @@
         <v>24.13999938964844</v>
       </c>
       <c r="F224" t="n">
-        <v>21.09221458435059</v>
+        <v>21.09221076965332</v>
       </c>
       <c r="G224" t="n">
         <v>44600</v>
@@ -8259,7 +8259,7 @@
         <v>23.76000022888184</v>
       </c>
       <c r="F225" t="n">
-        <v>20.76019096374512</v>
+        <v>20.76018905639648</v>
       </c>
       <c r="G225" t="n">
         <v>77800</v>
@@ -8294,7 +8294,7 @@
         <v>24.90999984741211</v>
       </c>
       <c r="F226" t="n">
-        <v>21.76499557495117</v>
+        <v>21.7649974822998</v>
       </c>
       <c r="G226" t="n">
         <v>94900</v>
@@ -8329,7 +8329,7 @@
         <v>23.90999984741211</v>
       </c>
       <c r="F227" t="n">
-        <v>20.96319961547852</v>
+        <v>20.96320533752441</v>
       </c>
       <c r="G227" t="n">
         <v>606800</v>
@@ -8364,7 +8364,7 @@
         <v>23.98999977111816</v>
       </c>
       <c r="F228" t="n">
-        <v>21.03333854675293</v>
+        <v>21.03334045410156</v>
       </c>
       <c r="G228" t="n">
         <v>407800</v>
@@ -8399,7 +8399,7 @@
         <v>25.59000015258789</v>
       </c>
       <c r="F229" t="n">
-        <v>22.43614768981934</v>
+        <v>22.43614959716797</v>
       </c>
       <c r="G229" t="n">
         <v>90800</v>
@@ -8434,7 +8434,7 @@
         <v>25.28000068664551</v>
       </c>
       <c r="F230" t="n">
-        <v>22.16435623168945</v>
+        <v>22.16435813903809</v>
       </c>
       <c r="G230" t="n">
         <v>66100</v>
@@ -8469,7 +8469,7 @@
         <v>26.11000061035156</v>
       </c>
       <c r="F231" t="n">
-        <v>22.89206123352051</v>
+        <v>22.89205741882324</v>
       </c>
       <c r="G231" t="n">
         <v>786000</v>
@@ -8504,7 +8504,7 @@
         <v>26.56999969482422</v>
       </c>
       <c r="F232" t="n">
-        <v>23.29536628723145</v>
+        <v>23.29536819458008</v>
       </c>
       <c r="G232" t="n">
         <v>182200</v>
@@ -8539,7 +8539,7 @@
         <v>25.69000053405762</v>
       </c>
       <c r="F233" t="n">
-        <v>22.78994750976562</v>
+        <v>22.78994941711426</v>
       </c>
       <c r="G233" t="n">
         <v>383100</v>
@@ -8574,7 +8574,7 @@
         <v>26.5</v>
       </c>
       <c r="F234" t="n">
-        <v>23.50850868225098</v>
+        <v>23.50850677490234</v>
       </c>
       <c r="G234" t="n">
         <v>122800</v>
@@ -8609,7 +8609,7 @@
         <v>24.46999931335449</v>
       </c>
       <c r="F235" t="n">
-        <v>21.70766639709473</v>
+        <v>21.70766830444336</v>
       </c>
       <c r="G235" t="n">
         <v>376400</v>
@@ -8679,7 +8679,7 @@
         <v>25</v>
       </c>
       <c r="F237" t="n">
-        <v>22.1778392791748</v>
+        <v>22.17783737182617</v>
       </c>
       <c r="G237" t="n">
         <v>157200</v>
@@ -8749,7 +8749,7 @@
         <v>23.84000015258789</v>
       </c>
       <c r="F239" t="n">
-        <v>21.27890014648438</v>
+        <v>21.27889823913574</v>
       </c>
       <c r="G239" t="n">
         <v>163300</v>
@@ -8889,7 +8889,7 @@
         <v>24.71999931335449</v>
       </c>
       <c r="F243" t="n">
-        <v>22.06436538696289</v>
+        <v>22.06436347961426</v>
       </c>
       <c r="G243" t="n">
         <v>328200</v>
@@ -8924,7 +8924,7 @@
         <v>24.90999984741211</v>
       </c>
       <c r="F244" t="n">
-        <v>22.23394966125488</v>
+        <v>22.23395347595215</v>
       </c>
       <c r="G244" t="n">
         <v>1122700</v>
@@ -8959,7 +8959,7 @@
         <v>23.14999961853027</v>
       </c>
       <c r="F245" t="n">
-        <v>20.96211624145508</v>
+        <v>20.96211242675781</v>
       </c>
       <c r="G245" t="n">
         <v>814600</v>
@@ -8994,7 +8994,7 @@
         <v>24.07999992370605</v>
       </c>
       <c r="F246" t="n">
-        <v>21.80422210693359</v>
+        <v>21.80422019958496</v>
       </c>
       <c r="G246" t="n">
         <v>275800</v>
@@ -9029,7 +9029,7 @@
         <v>24.84000015258789</v>
       </c>
       <c r="F247" t="n">
-        <v>22.49239158630371</v>
+        <v>22.49239540100098</v>
       </c>
       <c r="G247" t="n">
         <v>107700</v>
@@ -9064,7 +9064,7 @@
         <v>25.05999946594238</v>
       </c>
       <c r="F248" t="n">
-        <v>22.69160079956055</v>
+        <v>22.69159889221191</v>
       </c>
       <c r="G248" t="n">
         <v>174600</v>
@@ -9134,7 +9134,7 @@
         <v>23.53000068664551</v>
       </c>
       <c r="F250" t="n">
-        <v>21.30620002746582</v>
+        <v>21.30620193481445</v>
       </c>
       <c r="G250" t="n">
         <v>442500</v>
@@ -9169,7 +9169,7 @@
         <v>24.14999961853027</v>
       </c>
       <c r="F251" t="n">
-        <v>22.15043449401855</v>
+        <v>22.15043067932129</v>
       </c>
       <c r="G251" t="n">
         <v>159000</v>
@@ -9239,7 +9239,7 @@
         <v>25.45000076293945</v>
       </c>
       <c r="F253" t="n">
-        <v>23.34279823303223</v>
+        <v>23.34279632568359</v>
       </c>
       <c r="G253" t="n">
         <v>176400</v>
@@ -9274,7 +9274,7 @@
         <v>26.80999946594238</v>
       </c>
       <c r="F254" t="n">
-        <v>24.5901927947998</v>
+        <v>24.59018707275391</v>
       </c>
       <c r="G254" t="n">
         <v>175500</v>
@@ -9309,7 +9309,7 @@
         <v>28.07999992370605</v>
       </c>
       <c r="F255" t="n">
-        <v>25.75503921508789</v>
+        <v>25.75503730773926</v>
       </c>
       <c r="G255" t="n">
         <v>120200</v>
@@ -9449,7 +9449,7 @@
         <v>30.63999938964844</v>
       </c>
       <c r="F259" t="n">
-        <v>28.44319915771484</v>
+        <v>28.44320106506348</v>
       </c>
       <c r="G259" t="n">
         <v>140100</v>
@@ -9519,7 +9519,7 @@
         <v>31.70000076293945</v>
       </c>
       <c r="F261" t="n">
-        <v>29.42719841003418</v>
+        <v>29.42720031738281</v>
       </c>
       <c r="G261" t="n">
         <v>241400</v>
@@ -9554,7 +9554,7 @@
         <v>31.53000068664551</v>
       </c>
       <c r="F262" t="n">
-        <v>29.26939010620117</v>
+        <v>29.26938819885254</v>
       </c>
       <c r="G262" t="n">
         <v>312000</v>
@@ -9659,7 +9659,7 @@
         <v>31.80999946594238</v>
       </c>
       <c r="F265" t="n">
-        <v>29.6966724395752</v>
+        <v>29.69667053222656</v>
       </c>
       <c r="G265" t="n">
         <v>433600</v>
@@ -9694,7 +9694,7 @@
         <v>31.96999931335449</v>
       </c>
       <c r="F266" t="n">
-        <v>29.84604263305664</v>
+        <v>29.84604072570801</v>
       </c>
       <c r="G266" t="n">
         <v>192200</v>
@@ -9729,7 +9729,7 @@
         <v>32.13000106811523</v>
       </c>
       <c r="F267" t="n">
-        <v>29.99541473388672</v>
+        <v>29.99541282653809</v>
       </c>
       <c r="G267" t="n">
         <v>398500</v>
@@ -9764,7 +9764,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F268" t="n">
-        <v>29.26723098754883</v>
+        <v>29.26723289489746</v>
       </c>
       <c r="G268" t="n">
         <v>361500</v>
@@ -9834,7 +9834,7 @@
         <v>31.71999931335449</v>
       </c>
       <c r="F270" t="n">
-        <v>30.08832931518555</v>
+        <v>30.08832740783691</v>
       </c>
       <c r="G270" t="n">
         <v>2116800</v>
@@ -9869,7 +9869,7 @@
         <v>31.04000091552734</v>
       </c>
       <c r="F271" t="n">
-        <v>29.44330978393555</v>
+        <v>29.44331169128418</v>
       </c>
       <c r="G271" t="n">
         <v>143400</v>
@@ -9904,7 +9904,7 @@
         <v>30.19000053405762</v>
       </c>
       <c r="F272" t="n">
-        <v>28.63703346252441</v>
+        <v>28.63703536987305</v>
       </c>
       <c r="G272" t="n">
         <v>130900</v>
@@ -9939,7 +9939,7 @@
         <v>27.78000068664551</v>
       </c>
       <c r="F273" t="n">
-        <v>26.35100173950195</v>
+        <v>26.35100555419922</v>
       </c>
       <c r="G273" t="n">
         <v>223900</v>
@@ -9974,7 +9974,7 @@
         <v>28.43000030517578</v>
       </c>
       <c r="F274" t="n">
-        <v>26.96756935119629</v>
+        <v>26.96756744384766</v>
       </c>
       <c r="G274" t="n">
         <v>192000</v>
@@ -10009,7 +10009,7 @@
         <v>26.29999923706055</v>
       </c>
       <c r="F275" t="n">
-        <v>25.06752395629883</v>
+        <v>25.06752586364746</v>
       </c>
       <c r="G275" t="n">
         <v>308600</v>
@@ -10079,7 +10079,7 @@
         <v>29.63999938964844</v>
       </c>
       <c r="F277" t="n">
-        <v>28.25100517272949</v>
+        <v>28.25100708007812</v>
       </c>
       <c r="G277" t="n">
         <v>67900</v>
@@ -10149,7 +10149,7 @@
         <v>31.73999977111816</v>
       </c>
       <c r="F279" t="n">
-        <v>30.25259780883789</v>
+        <v>30.25259399414062</v>
       </c>
       <c r="G279" t="n">
         <v>258600</v>
@@ -10184,7 +10184,7 @@
         <v>29.64999961853027</v>
       </c>
       <c r="F280" t="n">
-        <v>28.26053619384766</v>
+        <v>28.26053810119629</v>
       </c>
       <c r="G280" t="n">
         <v>310000</v>
@@ -10219,7 +10219,7 @@
         <v>30.84000015258789</v>
       </c>
       <c r="F281" t="n">
-        <v>30.11618423461914</v>
+        <v>30.11618614196777</v>
       </c>
       <c r="G281" t="n">
         <v>403500</v>
@@ -10289,7 +10289,7 @@
         <v>30.60000038146973</v>
       </c>
       <c r="F283" t="n">
-        <v>29.88181495666504</v>
+        <v>29.88181686401367</v>
       </c>
       <c r="G283" t="n">
         <v>266500</v>
@@ -10394,7 +10394,7 @@
         <v>32.59999847412109</v>
       </c>
       <c r="F286" t="n">
-        <v>31.83487319946289</v>
+        <v>31.83487701416016</v>
       </c>
       <c r="G286" t="n">
         <v>138600</v>
@@ -10499,7 +10499,7 @@
         <v>30.44000053405762</v>
       </c>
       <c r="F289" t="n">
-        <v>29.84919929504395</v>
+        <v>29.84920310974121</v>
       </c>
       <c r="G289" t="n">
         <v>668100</v>
@@ -10569,7 +10569,7 @@
         <v>28.45999908447266</v>
       </c>
       <c r="F291" t="n">
-        <v>27.90762710571289</v>
+        <v>27.90762901306152</v>
       </c>
       <c r="G291" t="n">
         <v>192800</v>
@@ -10604,7 +10604,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F292" t="n">
-        <v>30.12376594543457</v>
+        <v>30.12376403808594</v>
       </c>
       <c r="G292" t="n">
         <v>399400</v>
@@ -10639,7 +10639,7 @@
         <v>32.70999908447266</v>
       </c>
       <c r="F293" t="n">
-        <v>32.26938629150391</v>
+        <v>32.26939010620117</v>
       </c>
       <c r="G293" t="n">
         <v>170400</v>
@@ -10814,7 +10814,7 @@
         <v>38.90999984741211</v>
       </c>
       <c r="F298" t="n">
-        <v>38.3858757019043</v>
+        <v>38.38587188720703</v>
       </c>
       <c r="G298" t="n">
         <v>285800</v>
@@ -11298,28 +11298,28 @@
         <v>50.58000183105469</v>
       </c>
       <c r="D312" t="n">
-        <v>50.27999877929688</v>
+        <v>50.15999984741211</v>
       </c>
       <c r="E312" t="n">
-        <v>50.29000091552734</v>
+        <v>50.16999816894531</v>
       </c>
       <c r="F312" t="n">
-        <v>50.29000091552734</v>
+        <v>50.16999816894531</v>
       </c>
       <c r="G312" t="n">
-        <v>14055</v>
+        <v>16118</v>
       </c>
       <c r="H312" t="n">
-        <v>0.001393860874606245</v>
+        <v>-0.0009956800187650439</v>
       </c>
       <c r="I312" t="n">
-        <v>0.04647355339123523</v>
+        <v>0.04647763782100511</v>
       </c>
       <c r="J312" t="n">
-        <v>0.1883270623387521</v>
+        <v>0.1854914586656096</v>
       </c>
       <c r="K312" t="n">
-        <v>0.1883270623387521</v>
+        <v>0.1854914586656096</v>
       </c>
     </row>
   </sheetData>
